--- a/PLTR Model.xlsx
+++ b/PLTR Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/WhiteSky/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4756EDAE-96DA-024B-B44F-EA5B289CD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3181AF7-36E0-D146-934B-4204F0B6E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="760" windowWidth="25220" windowHeight="14920" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
   <si>
     <t>Price</t>
   </si>
@@ -215,18 +215,12 @@
     <t>3Q22A</t>
   </si>
   <si>
-    <t>4Q22E</t>
-  </si>
-  <si>
     <t>FY20A</t>
   </si>
   <si>
     <t>FY21</t>
   </si>
   <si>
-    <t>FY22E</t>
-  </si>
-  <si>
     <t>FY23E</t>
   </si>
   <si>
@@ -573,6 +567,15 @@
   </si>
   <si>
     <t>Commercial less SBC</t>
+  </si>
+  <si>
+    <t>4Q22A</t>
+  </si>
+  <si>
+    <t>1Q23A</t>
+  </si>
+  <si>
+    <t>FY22A</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,9 +674,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -732,16 +732,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>5757</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14620</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14619</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>18676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -756,8 +756,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9723011" y="5757"/>
-          <a:ext cx="14620" cy="8843275"/>
+          <a:off x="12363823" y="229874"/>
+          <a:ext cx="14620" cy="25674390"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -782,16 +782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13731</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>195384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13731</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>195384</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -806,8 +806,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12496800" y="0"/>
-          <a:ext cx="0" cy="6638925"/>
+          <a:off x="16436893" y="195384"/>
+          <a:ext cx="0" cy="23511282"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1206,11 +1206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
   <dimension ref="A2:AE273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="44" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="44" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,40 +1263,43 @@
         <v>58</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="AA2" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -1346,7 +1349,7 @@
     </row>
     <row r="4" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5">
         <v>118127</v>
@@ -1393,10 +1396,17 @@
       <c r="L5" s="5">
         <v>273834</v>
       </c>
+      <c r="M5" s="5">
+        <f>T5-L5-K5-J5</f>
+        <v>-168424</v>
+      </c>
+      <c r="T5" s="4">
+        <v>610198</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5">
         <v>111200</v>
@@ -1426,10 +1436,17 @@
       <c r="L6" s="5">
         <v>204046</v>
       </c>
+      <c r="M6" s="5">
+        <f>T6-L6-K6-J6</f>
+        <v>-136150</v>
+      </c>
+      <c r="T6" s="4">
+        <v>482475</v>
+      </c>
     </row>
     <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6">
         <f>B5+B6</f>
@@ -1476,6 +1493,10 @@
         <v>477880</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="T7" s="6">
+        <f>T5+T6</f>
+        <v>1092673</v>
+      </c>
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
@@ -1493,7 +1514,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="10">
         <f>B5/B$7</f>
@@ -1539,25 +1560,29 @@
         <f t="shared" si="4"/>
         <v>0.5730183309617477</v>
       </c>
+      <c r="T9" s="10">
+        <f t="shared" ref="T9" si="5">T5/T$7</f>
+        <v>0.5584452073035574</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="10">
         <f>B6/B$7</f>
         <v>0.48489711198419722</v>
       </c>
       <c r="C10" s="10" t="e">
-        <f t="shared" ref="C10:E10" si="5">C6/C$7</f>
+        <f t="shared" ref="C10:E10" si="6">C6/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="E10" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="10">
@@ -1565,28 +1590,32 @@
         <v>0.38921678379059532</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" ref="G10:L10" si="6">G6/G$7</f>
+        <f t="shared" ref="G10:L10" si="7">G6/G$7</f>
         <v>0.38207388950117399</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4269816690382523</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" ref="T10" si="8">T6/T$7</f>
+        <v>0.4415547926964426</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1603,119 +1632,119 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12:L14" si="9">F5/B5-1</f>
+        <v>0.76437224343291543</v>
+      </c>
+      <c r="G12" s="28" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="9"/>
+        <v>0.34002620554745611</v>
+      </c>
+      <c r="I12" s="28" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="9"/>
+        <v>0.16010939449189143</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="9"/>
+        <v>0.13303090225272385</v>
+      </c>
+      <c r="L12" s="28">
+        <f t="shared" si="9"/>
+        <v>0.25706494794248891</v>
+      </c>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28">
+        <f t="shared" si="9"/>
+        <v>0.19437050359712238</v>
+      </c>
+      <c r="G13" s="28" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="9"/>
+        <v>0.37463033792042899</v>
+      </c>
+      <c r="I13" s="28" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="9"/>
+        <v>0.54025178068577118</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="9"/>
+        <v>0.46326372776488789</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" si="9"/>
+        <v>0.17059262233951</v>
+      </c>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29">
-        <f>F5/B5-1</f>
-        <v>0.76437224343291543</v>
-      </c>
-      <c r="G12" s="29" t="e">
-        <f>G5/C5-1</f>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
+        <f t="shared" si="9"/>
+        <v>0.48798004596057165</v>
+      </c>
+      <c r="G14" s="28" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="29">
-        <f>H5/D5-1</f>
-        <v>0.34002620554745611</v>
-      </c>
-      <c r="I12" s="29" t="e">
-        <f>I5/E5-1</f>
+      <c r="H14" s="28">
+        <f t="shared" si="9"/>
+        <v>0.35519031261447442</v>
+      </c>
+      <c r="I14" s="28" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="29">
-        <f>J5/F5-1</f>
-        <v>0.16010939449189143</v>
-      </c>
-      <c r="K12" s="29">
-        <f>K5/G5-1</f>
-        <v>0.13303090225272385</v>
-      </c>
-      <c r="L12" s="29">
-        <f>L5/H5-1</f>
-        <v>0.25706494794248891</v>
-      </c>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29">
-        <f>F6/B6-1</f>
-        <v>0.19437050359712238</v>
-      </c>
-      <c r="G13" s="29" t="e">
-        <f>G6/C6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="29">
-        <f>H6/D6-1</f>
-        <v>0.37463033792042899</v>
-      </c>
-      <c r="I13" s="29" t="e">
-        <f>I6/E6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="29">
-        <f>J6/F6-1</f>
-        <v>0.54025178068577118</v>
-      </c>
-      <c r="K13" s="29">
-        <f>K6/G6-1</f>
-        <v>0.46326372776488789</v>
-      </c>
-      <c r="L13" s="29">
-        <f>L6/H6-1</f>
-        <v>0.17059262233951</v>
-      </c>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29">
-        <f>F7/B7-1</f>
-        <v>0.48798004596057165</v>
-      </c>
-      <c r="G14" s="29" t="e">
-        <f>G7/C7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="29">
-        <f>H7/D7-1</f>
-        <v>0.35519031261447442</v>
-      </c>
-      <c r="I14" s="29" t="e">
-        <f>I7/E7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="29">
-        <f>J7/F7-1</f>
+      <c r="J14" s="28">
+        <f t="shared" si="9"/>
         <v>0.3080671914287556</v>
       </c>
-      <c r="K14" s="29">
-        <f>K7/G7-1</f>
+      <c r="K14" s="28">
+        <f t="shared" si="9"/>
         <v>0.25920424233711881</v>
       </c>
-      <c r="L14" s="29">
-        <f>L7/H7-1</f>
+      <c r="L14" s="28">
+        <f t="shared" si="9"/>
         <v>0.21862775598884099</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
@@ -1733,7 +1762,7 @@
     </row>
     <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1748,9 +1777,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="5">
         <f>398377-G17</f>
@@ -1772,9 +1801,9 @@
         <v>296650</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F18" s="5">
         <f>74320-G18</f>
@@ -1796,9 +1825,9 @@
         <v>59435</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="5">
         <f>244179-G19</f>
@@ -1820,9 +1849,9 @@
         <v>121795</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5">
         <f>F17+F18+F19</f>
@@ -1833,11 +1862,11 @@
         <v>375642</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ref="H20:I20" si="7">H17+H18+H19</f>
+        <f t="shared" ref="H20:I20" si="10">H17+H18+H19</f>
         <v>392146</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
@@ -1853,53 +1882,53 @@
         <v>477880</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="10">
         <f>F17/F$20</f>
         <v>0.58155693746813042</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ref="G22:L22" si="8">G17/G$20</f>
+        <f t="shared" ref="G22:L22" si="11">G17/G$20</f>
         <v>0.53223547952571859</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.57959280472069075</v>
       </c>
       <c r="I22" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61142314335834325</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.61356630938035139</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.62076253452749641</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="10">
         <f>F18/F$20</f>
         <v>0.10076662935111975</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" ref="G23:L24" si="9">G18/G$20</f>
+        <f t="shared" ref="G23:L24" si="12">G18/G$20</f>
         <v>0.1063113283392166</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12218408449914063</v>
       </c>
       <c r="I23" s="10" t="e">
@@ -1907,32 +1936,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.11179840352005234</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.1102302276907465</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.12437222733740688</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="10">
         <f>F19/F$20</f>
         <v>0.31767643318074984</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.36145319213506477</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29822311078016861</v>
       </c>
       <c r="I24" s="10" t="e">
@@ -1940,133 +1969,133 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.27677845312160443</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.27620346292890213</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.25486523813509665</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29" t="e">
+    <row r="26" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28" t="e">
         <f>F22/B22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="29" t="e">
-        <f t="shared" ref="G26:K28" si="10">G22/C22-1</f>
+      <c r="G26" s="28" t="e">
+        <f t="shared" ref="G26:K28" si="13">G22/C22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="H26" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="I26" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="29">
-        <f t="shared" si="10"/>
+      <c r="J26" s="28">
+        <f t="shared" si="13"/>
         <v>5.1355600743477448E-2</v>
       </c>
-      <c r="K26" s="29">
-        <f t="shared" si="10"/>
+      <c r="K26" s="28">
+        <f t="shared" si="13"/>
         <v>0.15280986139275732</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="28">
         <f>L22/H22-1</f>
         <v>7.1032161668476146E-2</v>
       </c>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29" t="e">
-        <f t="shared" ref="F27:F28" si="11">F23/B23-1</f>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28" t="e">
+        <f t="shared" ref="F27:F28" si="14">F23/B23-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="G27" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="H27" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="I27" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="29">
-        <f t="shared" si="10"/>
+      <c r="J27" s="28">
+        <f t="shared" si="13"/>
         <v>0.1094784477755284</v>
       </c>
-      <c r="K27" s="29">
-        <f t="shared" si="10"/>
+      <c r="K27" s="28">
+        <f t="shared" si="13"/>
         <v>3.6862481287276649E-2</v>
       </c>
-      <c r="L27" s="29">
-        <f t="shared" ref="L27:L28" si="12">L23/H23-1</f>
+      <c r="L27" s="28">
+        <f t="shared" ref="L27:L28" si="15">L23/H23-1</f>
         <v>1.7908574977141489E-2</v>
       </c>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29" t="e">
-        <f t="shared" si="11"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="G28" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="H28" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="29" t="e">
-        <f t="shared" si="10"/>
+      <c r="I28" s="28" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="29">
-        <f t="shared" si="10"/>
+      <c r="J28" s="28">
+        <f t="shared" si="13"/>
         <v>-0.12874099488480306</v>
       </c>
-      <c r="K28" s="29">
-        <f t="shared" si="10"/>
+      <c r="K28" s="28">
+        <f t="shared" si="13"/>
         <v>-0.23585274957070301</v>
       </c>
-      <c r="L28" s="29">
-        <f t="shared" si="12"/>
+      <c r="L28" s="28">
+        <f t="shared" si="15"/>
         <v>-0.14538736629647953</v>
       </c>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2075,41 +2104,41 @@
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5">
         <f>B5</f>
         <v>118127</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:E31" si="13">C5</f>
+        <f t="shared" ref="C31:E31" si="16">C5</f>
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>162561</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F31" s="5">
@@ -2126,36 +2155,44 @@
         <v>238981</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="14">J5</f>
+        <f t="shared" ref="J31:L31" si="17">J5</f>
         <v>241790</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>262998</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>273834</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S31" s="5">
+        <f t="shared" ref="S31:T31" si="18">S5</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="18"/>
+        <v>610198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5">
         <f>B6</f>
         <v>111200</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:E32" si="15">C6</f>
+        <f t="shared" ref="C32:E32" si="19">C6</f>
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>126805</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F32" s="5">
@@ -2172,24 +2209,32 @@
         <v>193886</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="16">J6</f>
+        <f t="shared" ref="J32:L32" si="20">J6</f>
         <v>204567</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>210012</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>204046</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="5">
+        <f t="shared" ref="S32:T32" si="21">S6</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="21"/>
+        <v>482475</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" ref="B33:E33" si="17">B31+B32</f>
+        <f t="shared" ref="B33:E33" si="22">B31+B32</f>
         <v>229327</v>
       </c>
       <c r="C33" s="6">
@@ -2197,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>289366</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F33" s="6">
@@ -2213,11 +2258,11 @@
         <v>375642</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33" si="18">H31+H32</f>
+        <f t="shared" ref="H33" si="23">H31+H32</f>
         <v>392146</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" ref="I33" si="19">I31+I32</f>
+        <f t="shared" ref="I33" si="24">I31+I32</f>
         <v>432867</v>
       </c>
       <c r="J33" s="6">
@@ -2233,8 +2278,16 @@
         <v>477880</v>
       </c>
       <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="S33" s="6">
+        <f>S31+S32</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <f>T31+T32</f>
+        <v>1092673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2243,24 +2296,24 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" s="10">
         <f>B31/B$7</f>
         <v>0.51510288801580273</v>
       </c>
       <c r="C35" s="10" t="e">
-        <f t="shared" ref="C35:E35" si="20">C31/C$7</f>
+        <f t="shared" ref="C35:E35" si="25">C31/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.56178334704146304</v>
       </c>
       <c r="E35" s="10" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="10">
@@ -2268,48 +2321,52 @@
         <v>0.61078321620940468</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" ref="G35:K35" si="21">G31/G$7</f>
+        <f t="shared" ref="G35:K35" si="26">G31/G$7</f>
         <v>0.61792611049882606</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.55549718727208741</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.55208874781399364</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.54169644477402612</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="21"/>
+        <f>K31/K$7</f>
         <v>0.55600938669372746</v>
       </c>
       <c r="L35" s="10">
         <f>L31/L$7</f>
         <v>0.5730183309617477</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="T35" s="10">
+        <f>T31/T$7</f>
+        <v>0.5584452073035574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B36" s="10">
         <f>B32/B$7</f>
         <v>0.48489711198419722</v>
       </c>
       <c r="C36" s="10" t="e">
-        <f t="shared" ref="C36:E36" si="22">C32/C$7</f>
+        <f t="shared" ref="C36:E36" si="27">C32/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="E36" s="10" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="10">
@@ -2317,761 +2374,765 @@
         <v>0.38921678379059532</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" ref="G36:L36" si="23">G32/G$7</f>
+        <f t="shared" ref="G36:L36" si="28">G32/G$7</f>
         <v>0.38207388950117399</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.4269816690382523</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="T36" s="10">
+        <f t="shared" ref="T36" si="29">T32/T$7</f>
+        <v>0.4415547926964426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26">
-        <f>F35*F$64</f>
+        <v>155</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25">
+        <f t="shared" ref="F38:L39" si="30">F35*F$64</f>
         <v>45265.754936495192</v>
       </c>
-      <c r="G38" s="26">
-        <f>G35*G$64</f>
+      <c r="G38" s="25">
+        <f t="shared" si="30"/>
         <v>56185.549523216258</v>
       </c>
-      <c r="H38" s="26">
-        <f>H35*H$64</f>
+      <c r="H38" s="25">
+        <f t="shared" si="30"/>
         <v>48219.377843966278</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="25">
         <f>I35*I$64</f>
         <v>48342.547024836727</v>
       </c>
-      <c r="J38" s="26">
-        <f>J35*J$64</f>
+      <c r="J38" s="25">
+        <f t="shared" si="30"/>
         <v>51137.769476002388</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="25">
         <f>K35*K$64</f>
         <v>56837.503545379594</v>
       </c>
-      <c r="L38" s="26">
-        <f>L35*L$64</f>
+      <c r="L38" s="25">
+        <f t="shared" si="30"/>
         <v>61663.075613124631</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26">
-        <f>F36*F$64</f>
+        <v>156</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25">
+        <f t="shared" si="30"/>
         <v>28845.245063504812</v>
       </c>
-      <c r="G39" s="26">
-        <f>G36*G$64</f>
+      <c r="G39" s="25">
+        <f t="shared" si="30"/>
         <v>34740.45047678375</v>
       </c>
-      <c r="H39" s="26">
-        <f>H36*H$64</f>
+      <c r="H39" s="25">
+        <f t="shared" si="30"/>
         <v>38584.622156033722</v>
       </c>
-      <c r="I39" s="26">
-        <f>I36*I$64</f>
+      <c r="I39" s="25">
+        <f t="shared" si="30"/>
         <v>39220.452975163273</v>
       </c>
-      <c r="J39" s="26">
-        <f>J36*J$64</f>
+      <c r="J39" s="25">
+        <f t="shared" si="30"/>
         <v>43265.230523997605</v>
       </c>
-      <c r="K39" s="26">
-        <f>K36*K$64</f>
+      <c r="K39" s="25">
+        <f t="shared" si="30"/>
         <v>45386.496454620406</v>
       </c>
-      <c r="L39" s="26">
-        <f>L36*L$64</f>
+      <c r="L39" s="25">
+        <f t="shared" si="30"/>
         <v>45947.924386875369</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26">
+        <v>157</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25">
         <f>F38+F39</f>
         <v>74111</v>
       </c>
-      <c r="G40" s="26">
-        <f t="shared" ref="G40:L40" si="24">G38+G39</f>
+      <c r="G40" s="25">
+        <f t="shared" ref="G40:L40" si="31">G38+G39</f>
         <v>90926</v>
       </c>
-      <c r="H40" s="26">
-        <f t="shared" si="24"/>
+      <c r="H40" s="25">
+        <f t="shared" si="31"/>
         <v>86804</v>
       </c>
-      <c r="I40" s="26">
-        <f t="shared" si="24"/>
+      <c r="I40" s="25">
+        <f t="shared" si="31"/>
         <v>87563</v>
       </c>
-      <c r="J40" s="26">
-        <f t="shared" si="24"/>
+      <c r="J40" s="25">
+        <f t="shared" si="31"/>
         <v>94403</v>
       </c>
-      <c r="K40" s="26">
-        <f t="shared" si="24"/>
+      <c r="K40" s="25">
+        <f t="shared" si="31"/>
         <v>102224</v>
       </c>
-      <c r="L40" s="26">
-        <f t="shared" si="24"/>
+      <c r="L40" s="25">
+        <f t="shared" si="31"/>
         <v>107611</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26">
+        <v>158</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25">
         <f>F31-F38</f>
         <v>163154.24506350482</v>
       </c>
-      <c r="G42" s="26">
-        <f t="shared" ref="G42:L42" si="25">G31-G38</f>
+      <c r="G42" s="25">
+        <f t="shared" ref="G42:L42" si="32">G31-G38</f>
         <v>175933.45047678374</v>
       </c>
-      <c r="H42" s="26">
-        <f t="shared" si="25"/>
+      <c r="H42" s="25">
+        <f t="shared" si="32"/>
         <v>169616.62215603373</v>
       </c>
-      <c r="I42" s="26">
-        <f t="shared" si="25"/>
+      <c r="I42" s="25">
+        <f>I31-I38</f>
         <v>190638.45297516327</v>
       </c>
-      <c r="J42" s="26">
-        <f t="shared" si="25"/>
+      <c r="J42" s="25">
+        <f t="shared" si="32"/>
         <v>190652.23052399763</v>
       </c>
-      <c r="K42" s="26">
-        <f t="shared" si="25"/>
+      <c r="K42" s="25">
+        <f t="shared" si="32"/>
         <v>206160.49645462041</v>
       </c>
-      <c r="L42" s="26">
-        <f t="shared" si="25"/>
+      <c r="L42" s="25">
+        <f t="shared" si="32"/>
         <v>212170.92438687535</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26">
+        <v>159</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25">
         <f>F32-F39</f>
         <v>103968.75493649518</v>
       </c>
-      <c r="G43" s="26">
-        <f t="shared" ref="G43:L43" si="26">G32-G39</f>
+      <c r="G43" s="25">
+        <f t="shared" ref="G43:L43" si="33">G32-G39</f>
         <v>108782.54952321625</v>
       </c>
-      <c r="H43" s="26">
-        <f t="shared" si="26"/>
+      <c r="H43" s="25">
+        <f t="shared" si="33"/>
         <v>135725.37784396627</v>
       </c>
-      <c r="I43" s="26">
-        <f t="shared" si="26"/>
+      <c r="I43" s="25">
+        <f t="shared" si="33"/>
         <v>154665.54702483673</v>
       </c>
-      <c r="J43" s="26">
-        <f t="shared" si="26"/>
+      <c r="J43" s="25">
+        <f t="shared" si="33"/>
         <v>161301.7694760024</v>
       </c>
-      <c r="K43" s="26">
-        <f t="shared" si="26"/>
+      <c r="K43" s="25">
+        <f t="shared" si="33"/>
         <v>164625.50354537959</v>
       </c>
-      <c r="L43" s="26">
-        <f t="shared" si="26"/>
+      <c r="L43" s="25">
+        <f t="shared" si="33"/>
         <v>158098.07561312465</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26">
+        <v>160</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25">
         <f>F42+F43</f>
         <v>267123</v>
       </c>
-      <c r="G44" s="26">
-        <f t="shared" ref="G44:L44" si="27">G42+G43</f>
+      <c r="G44" s="25">
+        <f t="shared" ref="G44:L44" si="34">G42+G43</f>
         <v>284716</v>
       </c>
-      <c r="H44" s="26">
-        <f t="shared" si="27"/>
+      <c r="H44" s="25">
+        <f t="shared" si="34"/>
         <v>305342</v>
       </c>
-      <c r="I44" s="26">
-        <f t="shared" si="27"/>
+      <c r="I44" s="25">
+        <f>I42+I43</f>
         <v>345304</v>
       </c>
-      <c r="J44" s="26">
-        <f t="shared" si="27"/>
+      <c r="J44" s="25">
+        <f t="shared" si="34"/>
         <v>351954</v>
       </c>
-      <c r="K44" s="26">
-        <f t="shared" si="27"/>
+      <c r="K44" s="25">
+        <f t="shared" si="34"/>
         <v>370786</v>
       </c>
-      <c r="L44" s="26">
-        <f t="shared" si="27"/>
+      <c r="L44" s="25">
+        <f t="shared" si="34"/>
         <v>370269</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26">
+        <v>161</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25">
         <f>K47+K48</f>
         <v>262527</v>
       </c>
-      <c r="L46" s="26"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L46" s="25"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="25">
+        <v>162</v>
+      </c>
+      <c r="B47" s="24">
         <v>51897</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24">
         <v>93962</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
+      <c r="E47" s="24"/>
+      <c r="F47" s="25">
         <v>131746</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>143253</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <v>125706</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="25">
         <f>541883-H47-G47-F47</f>
         <v>141178</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="25">
         <v>139810</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="25">
         <v>153642</v>
       </c>
-      <c r="L47" s="26">
+      <c r="L47" s="25">
         <v>153552</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="25">
+        <v>71</v>
+      </c>
+      <c r="B48" s="24">
         <v>41014</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24">
         <v>69496</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26">
+      <c r="E48" s="24"/>
+      <c r="F48" s="25">
         <v>72543</v>
       </c>
       <c r="G48" s="4">
         <v>75121</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="25">
         <v>98177</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="25">
         <f>357546-H48-G48-F48</f>
         <v>111705</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="25">
         <v>112608</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="25">
         <v>108885</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="25">
         <v>93148</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="26">
-        <f>B31-B47-B57+B$66*B35</f>
+        <v>162</v>
+      </c>
+      <c r="B51" s="25">
+        <f t="shared" ref="B51:L51" si="35">B31-B47-B57+B$66*B35</f>
         <v>66230</v>
       </c>
-      <c r="C51" s="26" t="e">
-        <f>C31-C47-C57+C$66*C35</f>
+      <c r="C51" s="25" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="26">
-        <f>D31-D47-D57+D$66*D35</f>
+      <c r="D51" s="25">
+        <f t="shared" si="35"/>
         <v>81762.707387875562</v>
       </c>
-      <c r="E51" s="26" t="e">
-        <f>E31-E47-E57+E$66*E35</f>
+      <c r="E51" s="25" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="26">
-        <f>F31-F47-F57+F$66*F35</f>
+      <c r="F51" s="25">
+        <f t="shared" si="35"/>
         <v>38296.047392698267</v>
       </c>
-      <c r="G51" s="26">
-        <f>G31-G47-G57+G$66*G35</f>
+      <c r="G51" s="25">
+        <f t="shared" si="35"/>
         <v>47871.545977286878</v>
       </c>
-      <c r="H51" s="26">
-        <f>H31-H47-H57+H$66*H35</f>
+      <c r="H51" s="25">
+        <f t="shared" si="35"/>
         <v>46879.754622003027</v>
       </c>
-      <c r="I51" s="26">
-        <f>I31-I47-I57+I$66*I35</f>
+      <c r="I51" s="25">
+        <f t="shared" si="35"/>
         <v>46778.405838282895</v>
       </c>
-      <c r="J51" s="26">
-        <f>J31-J47-J57+J$66*J35</f>
+      <c r="J51" s="25">
+        <f t="shared" si="35"/>
         <v>48061.702672972533</v>
       </c>
-      <c r="K51" s="26">
-        <f>K31-K47-K57+K$66*K35</f>
+      <c r="K51" s="25">
+        <f t="shared" si="35"/>
         <v>49162.979805923766</v>
       </c>
-      <c r="L51" s="26">
-        <f>L31-L47-L57+L$66*L35</f>
+      <c r="L51" s="25">
+        <f t="shared" si="35"/>
         <v>49474.697861387802</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="26">
-        <f>B32-B48-B58+B$66*B36</f>
+        <v>71</v>
+      </c>
+      <c r="B52" s="25">
+        <f t="shared" ref="B52:L52" si="36">B32-B48-B58+B$66*B36</f>
         <v>70186</v>
       </c>
-      <c r="C52" s="26" t="e">
-        <f>C32-C48-C58+C$66*C36</f>
+      <c r="C52" s="25" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="26">
-        <f>D32-D48-D58+D$66*D36</f>
+      <c r="D52" s="25">
+        <f t="shared" si="36"/>
         <v>67577.292612124438</v>
       </c>
-      <c r="E52" s="26" t="e">
-        <f>E32-E48-E58+E$66*E36</f>
+      <c r="E52" s="25" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="26">
-        <f>F32-F48-F58+F$66*F36</f>
+      <c r="F52" s="25">
+        <f t="shared" si="36"/>
         <v>35814.952607301733</v>
       </c>
-      <c r="G52" s="26">
-        <f>G32-G48-G58+G$66*G36</f>
+      <c r="G52" s="25">
+        <f t="shared" si="36"/>
         <v>43054.454022713115</v>
       </c>
-      <c r="H52" s="26">
-        <f>H32-H48-H58+H$66*H36</f>
+      <c r="H52" s="25">
+        <f t="shared" si="36"/>
         <v>39924.245377996973</v>
       </c>
-      <c r="I52" s="26">
-        <f>I32-I48-I58+I$66*I36</f>
+      <c r="I52" s="25">
+        <f t="shared" si="36"/>
         <v>40784.594161717112</v>
       </c>
-      <c r="J52" s="26">
-        <f>J32-J48-J58+J$66*J36</f>
+      <c r="J52" s="25">
+        <f t="shared" si="36"/>
         <v>46341.297327027474</v>
       </c>
-      <c r="K52" s="26">
-        <f>K32-K48-K58+K$66*K36</f>
+      <c r="K52" s="25">
+        <f t="shared" si="36"/>
         <v>53061.020194076234</v>
       </c>
-      <c r="L52" s="26">
-        <f>L32-L48-L58+L$66*L36</f>
+      <c r="L52" s="25">
+        <f t="shared" si="36"/>
         <v>58136.302138612205</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="26">
-        <f>B51-B$66*B35</f>
+        <v>175</v>
+      </c>
+      <c r="B53" s="25">
+        <f t="shared" ref="B53:L53" si="37">B51-B$66*B35</f>
         <v>66230</v>
       </c>
-      <c r="C53" s="26" t="e">
-        <f>C51-C$66*C35</f>
+      <c r="C53" s="25" t="e">
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="26">
-        <f>D51-D$66*D35</f>
+      <c r="D53" s="25">
+        <f t="shared" si="37"/>
         <v>28738.786177367074</v>
       </c>
-      <c r="E53" s="26" t="e">
-        <f>E51-E$66*E35</f>
+      <c r="E53" s="25" t="e">
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="26">
-        <f>F51-F$66*F35</f>
+      <c r="F53" s="25">
+        <f t="shared" si="37"/>
         <v>28537.56394732061</v>
       </c>
-      <c r="G53" s="26">
-        <f>G51-G$66*G35</f>
+      <c r="G53" s="25">
+        <f t="shared" si="37"/>
         <v>33023.399468110583</v>
       </c>
-      <c r="H53" s="26">
-        <f>H51-H$66*H35</f>
+      <c r="H53" s="25">
+        <f t="shared" si="37"/>
         <v>38625.06641913981</v>
       </c>
-      <c r="I53" s="26">
-        <f>I51-I$66*I35</f>
+      <c r="I53" s="25">
+        <f t="shared" si="37"/>
         <v>39225.831768187461</v>
       </c>
-      <c r="J53" s="26">
-        <f>J51-J$66*J35</f>
+      <c r="J53" s="25">
+        <f t="shared" si="37"/>
         <v>41736.313287346231</v>
       </c>
-      <c r="K53" s="26">
-        <f>K51-K$66*K35</f>
+      <c r="K53" s="25">
+        <f t="shared" si="37"/>
         <v>42929.558571700385</v>
       </c>
-      <c r="L53" s="26">
-        <f>L51-L$66*L35</f>
+      <c r="L53" s="25">
+        <f t="shared" si="37"/>
         <v>43443.679928015408</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="26">
-        <f>B52-B$66*B36</f>
+        <v>176</v>
+      </c>
+      <c r="B54" s="25">
+        <f t="shared" ref="B54:L54" si="38">B52-B$66*B36</f>
         <v>70186</v>
       </c>
-      <c r="C54" s="26" t="e">
-        <f>C52-C$66*C36</f>
+      <c r="C54" s="25" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D54" s="26">
-        <f>D52-D$66*D36</f>
+      <c r="D54" s="25">
+        <f t="shared" si="38"/>
         <v>26216.213822632926</v>
       </c>
-      <c r="E54" s="26" t="e">
-        <f>E52-E$66*E36</f>
+      <c r="E54" s="25" t="e">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="26">
-        <f>F52-F$66*F36</f>
+      <c r="F54" s="25">
+        <f t="shared" si="38"/>
         <v>29596.43605267939</v>
       </c>
-      <c r="G54" s="26">
-        <f>G52-G$66*G36</f>
+      <c r="G54" s="25">
+        <f t="shared" si="38"/>
         <v>33873.600531889402</v>
       </c>
-      <c r="H54" s="26">
-        <f>H52-H$66*H36</f>
+      <c r="H54" s="25">
+        <f t="shared" si="38"/>
         <v>33318.93358086019</v>
       </c>
-      <c r="I54" s="26">
-        <f>I52-I$66*I36</f>
+      <c r="I54" s="25">
+        <f t="shared" si="38"/>
         <v>34657.168231812546</v>
       </c>
-      <c r="J54" s="26">
-        <f>J52-J$66*J36</f>
+      <c r="J54" s="25">
+        <f t="shared" si="38"/>
         <v>40989.686712653776</v>
       </c>
-      <c r="K54" s="26">
-        <f>K52-K$66*K36</f>
+      <c r="K54" s="25">
+        <f t="shared" si="38"/>
         <v>48083.441428299615</v>
       </c>
-      <c r="L54" s="26">
-        <f>L52-L$66*L36</f>
+      <c r="L54" s="25">
+        <f t="shared" si="38"/>
         <v>53642.320071984599</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+        <v>163</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="26">
-        <f>B35*B69</f>
+        <v>164</v>
+      </c>
+      <c r="B57" s="25">
+        <f t="shared" ref="B57:J57" si="39">B35*B69</f>
         <v>0</v>
       </c>
-      <c r="C57" s="26" t="e">
-        <f>C35*C69</f>
+      <c r="C57" s="25" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="26">
-        <f>D35*D69</f>
+      <c r="D57" s="25">
+        <f t="shared" si="39"/>
         <v>39860.213822632926</v>
       </c>
-      <c r="E57" s="26" t="e">
-        <f>E35*E69</f>
+      <c r="E57" s="25" t="e">
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="26">
-        <f>F35*F69</f>
+      <c r="F57" s="25">
+        <f t="shared" si="39"/>
         <v>48136.43605267939</v>
       </c>
-      <c r="G57" s="26">
-        <f>G35*G69</f>
+      <c r="G57" s="25">
+        <f t="shared" si="39"/>
         <v>55842.600531889409</v>
       </c>
-      <c r="H57" s="26">
-        <f>H35*H69</f>
+      <c r="H57" s="25">
+        <f t="shared" si="39"/>
         <v>53504.93358086019</v>
       </c>
-      <c r="I57" s="26">
-        <f>I35*I69</f>
+      <c r="I57" s="25">
+        <f t="shared" si="39"/>
         <v>58577.168231812539</v>
       </c>
-      <c r="J57" s="26">
-        <f>J35*J69</f>
+      <c r="J57" s="25">
+        <f t="shared" si="39"/>
         <v>60243.686712653769</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="25">
         <f>K35*K$69</f>
         <v>66426.441428299615</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="25">
         <f>L35*L$69</f>
         <v>76838.320071984592</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="26">
-        <f>B36*B$69</f>
+        <v>165</v>
+      </c>
+      <c r="B58" s="25">
+        <f t="shared" ref="B58:J58" si="40">B36*B$69</f>
         <v>0</v>
       </c>
-      <c r="C58" s="26" t="e">
-        <f>C36*C$69</f>
+      <c r="C58" s="25" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="26">
-        <f>D36*D$69</f>
+      <c r="D58" s="25">
+        <f t="shared" si="40"/>
         <v>31092.786177367074</v>
       </c>
-      <c r="E58" s="26" t="e">
-        <f>E36*E$69</f>
+      <c r="E58" s="25" t="e">
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="26">
-        <f>F36*F$69</f>
+      <c r="F58" s="25">
+        <f t="shared" si="40"/>
         <v>30674.563947320607</v>
       </c>
-      <c r="G58" s="26">
-        <f>G36*G$69</f>
+      <c r="G58" s="25">
+        <f t="shared" si="40"/>
         <v>34528.399468110598</v>
       </c>
-      <c r="H58" s="26">
-        <f>H36*H$69</f>
+      <c r="H58" s="25">
+        <f t="shared" si="40"/>
         <v>42814.06641913981</v>
       </c>
-      <c r="I58" s="26">
-        <f>I36*I$69</f>
+      <c r="I58" s="25">
+        <f t="shared" si="40"/>
         <v>47523.831768187454</v>
       </c>
-      <c r="J58" s="26">
-        <f>J36*J$69</f>
+      <c r="J58" s="25">
+        <f t="shared" si="40"/>
         <v>50969.313287346224</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="25">
         <f>K36*K$69</f>
         <v>53043.558571700385</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="25">
         <f>L36*L$69</f>
         <v>57255.679928015401</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
     </row>
     <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3088,7 +3149,7 @@
     </row>
     <row r="63" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12">
@@ -3131,7 +3192,7 @@
       <c r="C64" s="14">
         <v>68410</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>149340</v>
       </c>
       <c r="E64" s="14">
@@ -3162,22 +3223,22 @@
     </row>
     <row r="65" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B65" s="14">
         <f>B64-B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" ref="C65:E65" si="28">C64-C66</f>
+        <f t="shared" ref="C65:E65" si="41">C64-C66</f>
         <v>68410</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>54955</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>70503</v>
       </c>
       <c r="F65" s="14">
@@ -3185,15 +3246,15 @@
         <v>58134</v>
       </c>
       <c r="G65" s="14">
-        <f t="shared" ref="G65:I65" si="29">G64-G66</f>
+        <f t="shared" ref="G65:I65" si="42">G64-G66</f>
         <v>66897</v>
       </c>
       <c r="H65" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>71944</v>
       </c>
       <c r="I65" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>73883</v>
       </c>
       <c r="J65" s="14">
@@ -3212,11 +3273,11 @@
     </row>
     <row r="66" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>94385</v>
       </c>
       <c r="E66" s="14"/>
@@ -3250,43 +3311,43 @@
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14">
-        <f>(C63-C64)</f>
+        <f t="shared" ref="C67:L67" si="43">(C63-C64)</f>
         <v>183479</v>
       </c>
       <c r="D67" s="14">
-        <f>(D63-D64)</f>
+        <f t="shared" si="43"/>
         <v>140026</v>
       </c>
       <c r="E67" s="14">
-        <f>(E63-E64)</f>
+        <f t="shared" si="43"/>
         <v>251588</v>
       </c>
       <c r="F67" s="14">
-        <f>(F63-F64)</f>
+        <f t="shared" si="43"/>
         <v>267123</v>
       </c>
       <c r="G67" s="14">
-        <f>(G63-G64)</f>
+        <f t="shared" si="43"/>
         <v>284716</v>
       </c>
       <c r="H67" s="14">
-        <f>(H63-H64)</f>
+        <f t="shared" si="43"/>
         <v>305342</v>
       </c>
       <c r="I67" s="14">
-        <f>(I63-I64)</f>
+        <f t="shared" si="43"/>
         <v>345304</v>
       </c>
       <c r="J67" s="14">
-        <f>(J63-J64)</f>
+        <f t="shared" si="43"/>
         <v>351954</v>
       </c>
       <c r="K67" s="14">
-        <f>(K63-K64)</f>
+        <f t="shared" si="43"/>
         <v>370786</v>
       </c>
       <c r="L67" s="14">
-        <f>(L63-L64)</f>
+        <f t="shared" si="43"/>
         <v>370269</v>
       </c>
       <c r="M67" s="14"/>
@@ -3330,22 +3391,22 @@
     </row>
     <row r="69" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" s="14">
         <f>B68-B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" ref="C69" si="30">C68-C70</f>
+        <f t="shared" ref="C69" si="44">C68-C70</f>
         <v>102518</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" ref="D69" si="31">D68-D70</f>
+        <f t="shared" ref="D69" si="45">D68-D70</f>
         <v>70953</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" ref="E69" si="32">E68-E70</f>
+        <f t="shared" ref="E69" si="46">E68-E70</f>
         <v>147619</v>
       </c>
       <c r="F69" s="14">
@@ -3353,15 +3414,15 @@
         <v>78811</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" ref="G69:I69" si="33">G68-G70</f>
+        <f t="shared" ref="G69:I69" si="47">G68-G70</f>
         <v>90371</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>96319</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>106101</v>
       </c>
       <c r="J69" s="14">
@@ -3380,7 +3441,7 @@
     </row>
     <row r="70" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3451,22 +3512,22 @@
     </row>
     <row r="72" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B72" s="14">
         <f>B71-B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" ref="C72" si="34">C71-C73</f>
+        <f t="shared" ref="C72" si="48">C71-C73</f>
         <v>86815</v>
       </c>
       <c r="D72" s="14">
-        <f t="shared" ref="D72" si="35">D71-D73</f>
+        <f t="shared" ref="D72" si="49">D71-D73</f>
         <v>57146</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" ref="E72" si="36">E71-E73</f>
+        <f t="shared" ref="E72" si="50">E71-E73</f>
         <v>94130</v>
       </c>
       <c r="F72" s="14">
@@ -3474,15 +3535,15 @@
         <v>60597</v>
       </c>
       <c r="G72" s="14">
-        <f t="shared" ref="G72:I72" si="37">G71-G73</f>
+        <f t="shared" ref="G72:I72" si="51">G71-G73</f>
         <v>59894</v>
       </c>
       <c r="H72" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>59844</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>56854</v>
       </c>
       <c r="J72" s="14">
@@ -3499,7 +3560,7 @@
     </row>
     <row r="73" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3534,7 +3595,7 @@
     </row>
     <row r="74" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14">
@@ -3571,22 +3632,22 @@
     </row>
     <row r="75" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75" s="14">
         <f>B74-B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" ref="C75:E75" si="38">C74-C76</f>
+        <f t="shared" ref="C75:E75" si="52">C74-C76</f>
         <v>93291</v>
       </c>
       <c r="D75" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>107130</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="52"/>
         <v>166411</v>
       </c>
       <c r="F75" s="14">
@@ -3594,15 +3655,15 @@
         <v>63975</v>
       </c>
       <c r="G75" s="14">
-        <f t="shared" ref="G75:I75" si="39">G74-G76</f>
+        <f t="shared" ref="G75:I75" si="53">G74-G76</f>
         <v>71886</v>
       </c>
       <c r="H75" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>71145</v>
       </c>
       <c r="I75" s="14">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>88065</v>
       </c>
       <c r="J75" s="14">
@@ -3620,7 +3681,7 @@
     </row>
     <row r="76" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3663,39 +3724,39 @@
         <v>282624</v>
       </c>
       <c r="D77" s="14">
-        <f t="shared" ref="D77:L77" si="40">D68+D71+D74</f>
+        <f t="shared" ref="D77:L77" si="54">D68+D71+D74</f>
         <v>987803</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>408160</v>
       </c>
       <c r="F77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>381137</v>
       </c>
       <c r="G77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>430864</v>
       </c>
       <c r="H77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>397283</v>
       </c>
       <c r="I77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>404247</v>
       </c>
       <c r="J77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>391393</v>
       </c>
       <c r="K77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>412531</v>
       </c>
       <c r="L77" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>432460</v>
       </c>
       <c r="M77" s="14"/>
@@ -3710,31 +3771,31 @@
         <v>-99145</v>
       </c>
       <c r="D78" s="12">
-        <f t="shared" ref="D78:L78" si="41">D67-D77</f>
+        <f t="shared" ref="D78:L78" si="55">D67-D77</f>
         <v>-847777</v>
       </c>
       <c r="E78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-156572</v>
       </c>
       <c r="F78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-114014</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-146148</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-91941</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-58943</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-39439</v>
       </c>
       <c r="K78" s="12">
@@ -3742,7 +3803,7 @@
         <v>-41745</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>-62191</v>
       </c>
       <c r="M78" s="12"/>
@@ -3851,35 +3912,35 @@
         <v>-99145</v>
       </c>
       <c r="D82" s="14">
-        <f t="shared" ref="D82:K82" si="42">D78+D79+D80+D81</f>
+        <f t="shared" ref="D82:K82" si="56">D78+D79+D80+D81</f>
         <v>-861862</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-156572</v>
       </c>
       <c r="F82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-120372</v>
       </c>
       <c r="G82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-146148</v>
       </c>
       <c r="H82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-91941</v>
       </c>
       <c r="I82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-130033</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-99356</v>
       </c>
       <c r="K82" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>-176741</v>
       </c>
       <c r="L82" s="14">
@@ -3936,27 +3997,27 @@
         <v>-100088</v>
       </c>
       <c r="D84" s="12">
-        <f t="shared" ref="D84:L84" si="43">(D82-D83)</f>
+        <f t="shared" ref="D84:L84" si="57">(D82-D83)</f>
         <v>-853319</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-148979</v>
       </c>
       <c r="F84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-123474</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-140487</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-93379</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-163039</v>
       </c>
       <c r="J84" s="12">
@@ -3964,47 +4025,47 @@
         <v>-101379</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-179329</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>-123875</v>
       </c>
       <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
       <c r="K85" s="14">
         <v>2054799</v>
       </c>
       <c r="L85" s="14">
         <v>2073265</v>
       </c>
-      <c r="M85" s="16"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
+      <c r="M85" s="15"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="16"/>
     </row>
     <row r="86" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -4025,93 +4086,93 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="18">
-        <f>D63/C63-1</f>
+      <c r="D89" s="17">
+        <f t="shared" ref="D89:L89" si="58">D63/C63-1</f>
         <v>0.14878378968513917</v>
       </c>
-      <c r="E89" s="18">
-        <f>E63/D63-1</f>
+      <c r="E89" s="17">
+        <f t="shared" si="58"/>
         <v>0.11309207025013301</v>
       </c>
-      <c r="F89" s="18">
-        <f>F63/E63-1</f>
+      <c r="F89" s="17">
+        <f t="shared" si="58"/>
         <v>5.9433514131099541E-2</v>
       </c>
-      <c r="G89" s="18">
-        <f>G63/F63-1</f>
+      <c r="G89" s="17">
+        <f t="shared" si="58"/>
         <v>0.10083403177877948</v>
       </c>
-      <c r="H89" s="18">
-        <f>H63/G63-1</f>
+      <c r="H89" s="17">
+        <f t="shared" si="58"/>
         <v>4.3935449177674446E-2</v>
       </c>
-      <c r="I89" s="18">
-        <f>I63/H63-1</f>
+      <c r="I89" s="17">
+        <f t="shared" si="58"/>
         <v>0.10384142640751159</v>
       </c>
-      <c r="J89" s="18">
-        <f>J63/I63-1</f>
+      <c r="J89" s="17">
+        <f t="shared" si="58"/>
         <v>3.1164306819415621E-2</v>
       </c>
-      <c r="K89" s="18">
-        <f>K63/J63-1</f>
+      <c r="K89" s="17">
+        <f t="shared" si="58"/>
         <v>5.9712293074825729E-2</v>
       </c>
-      <c r="L89" s="18">
-        <f>L63/K63-1</f>
+      <c r="L89" s="17">
+        <f t="shared" si="58"/>
         <v>1.0295765417221547E-2</v>
       </c>
-      <c r="M89" s="19"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="20"/>
-      <c r="W89" s="20"/>
-      <c r="X89" s="20"/>
-      <c r="Y89" s="20"/>
-      <c r="Z89" s="20"/>
+      <c r="M89" s="18"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="19"/>
+      <c r="X89" s="19"/>
+      <c r="Y89" s="19"/>
+      <c r="Z89" s="19"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="21"/>
-      <c r="Y90" s="21"/>
-      <c r="Z90" s="21"/>
-    </row>
-    <row r="92" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+    </row>
+    <row r="92" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
     </row>
     <row r="93" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
@@ -4172,7 +4233,7 @@
     </row>
     <row r="96" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -4191,7 +4252,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J97" s="5">
         <v>115042</v>
@@ -4199,7 +4260,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J98" s="14">
         <f>J93+J94+J95+J96+J97</f>
@@ -4506,7 +4567,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J120" s="5">
         <v>-4044</v>
@@ -4551,22 +4612,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -4577,58 +4638,58 @@
         <v>0</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" ref="C128:M128" si="44">C84</f>
+        <f t="shared" ref="C128:M128" si="59">C84</f>
         <v>-100088</v>
       </c>
       <c r="D128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-853319</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-148979</v>
       </c>
       <c r="F128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-123474</v>
       </c>
       <c r="G128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-140487</v>
       </c>
       <c r="H128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-93379</v>
       </c>
       <c r="I128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-163039</v>
       </c>
       <c r="J128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-101379</v>
       </c>
       <c r="K128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-179329</v>
       </c>
       <c r="L128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>-123875</v>
       </c>
       <c r="M128" s="14">
-        <f t="shared" si="44"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J130" s="5">
         <v>4312</v>
@@ -4640,7 +4701,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J131" s="5">
         <v>149323</v>
@@ -4652,7 +4713,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J132" s="5">
         <v>-3</v>
@@ -4660,7 +4721,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J133" s="5">
         <v>10142</v>
@@ -4668,7 +4729,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J134" s="5">
         <v>62843</v>
@@ -4676,7 +4737,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J135" s="5">
         <v>-2751</v>
@@ -4692,7 +4753,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J137" s="5">
         <v>-4320</v>
@@ -4748,7 +4809,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J144" s="5">
         <v>-75</v>
@@ -4756,7 +4817,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J145" s="14">
         <f>J128+J130+J131+J132+J133+J134+J135+J136+J137+J138+J139+J140+J141+J142+J143+J144</f>
@@ -4765,7 +4826,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J147" s="5">
         <v>-15215</v>
@@ -4773,7 +4834,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J148" s="5">
         <v>-89500</v>
@@ -4781,7 +4842,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J149" s="5">
         <v>8247</v>
@@ -4789,7 +4850,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J150" s="5">
         <f>J147+J148+J149</f>
@@ -4798,7 +4859,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J152" s="5">
         <v>27225</v>
@@ -4806,7 +4867,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J153" s="5">
         <v>16</v>
@@ -4814,7 +4875,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J154" s="5">
         <f>J152+J153</f>
@@ -4823,7 +4884,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J156" s="14">
         <f>J145+J150+J154</f>
@@ -4832,7 +4893,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J157" s="14">
         <f>I158</f>
@@ -4841,7 +4902,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I158" s="5">
         <v>2366914</v>
@@ -4856,17 +4917,17 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I205" s="5">
         <v>507317</v>
@@ -4877,7 +4938,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I206" s="5">
         <v>6844</v>
@@ -4888,7 +4949,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I207" s="5">
         <v>45048</v>
@@ -4899,7 +4960,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I208" s="5">
         <v>234153</v>
@@ -4910,33 +4971,33 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I210" s="5">
         <f>I205+I206+I207+I208</f>
         <v>793362</v>
       </c>
       <c r="J210" s="5">
-        <f t="shared" ref="J210:L210" si="45">J205+J206+J207+J208</f>
+        <f t="shared" ref="J210:L210" si="60">J205+J206+J207+J208</f>
         <v>0</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="L210" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>1003844</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L213" s="5">
         <v>77320</v>
@@ -4944,7 +5005,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L214" s="5">
         <v>36685</v>
@@ -4952,7 +5013,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L215" s="5">
         <v>12116</v>
@@ -4960,7 +5021,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L216" s="5">
         <v>6378</v>
@@ -4968,7 +5029,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L217" s="5">
         <f>L213+L214+L215+L216</f>
@@ -4977,7 +5038,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L218" s="5">
         <v>-74677</v>
@@ -4999,7 +5060,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K230" s="5">
         <v>47046</v>
@@ -5007,7 +5068,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K231" s="5">
         <v>42912</v>
@@ -5015,7 +5076,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K232" s="5">
         <v>97610</v>
@@ -5023,7 +5084,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K233" s="5">
         <f>K230+K231+K232</f>
@@ -5032,17 +5093,17 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I238" s="5">
         <v>20000000</v>
@@ -5056,7 +5117,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I239" s="5">
         <v>1962382</v>
@@ -5070,12 +5131,12 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I241" s="5">
         <v>2700000</v>
@@ -5089,7 +5150,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I242" s="5">
         <v>99354</v>
@@ -5103,12 +5164,12 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I244" s="5">
         <v>1005</v>
@@ -5122,7 +5183,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I245" s="5">
         <v>1005</v>
@@ -5136,56 +5197,56 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I247" s="5">
-        <f>I238+I241+I244</f>
+        <f t="shared" ref="I247:K248" si="61">I238+I241+I244</f>
         <v>22701005</v>
       </c>
       <c r="J247" s="5">
-        <f>J238+J241+J244</f>
+        <f t="shared" si="61"/>
         <v>22701005</v>
       </c>
       <c r="K247" s="5">
-        <f>K238+K241+K244</f>
+        <f t="shared" si="61"/>
         <v>22701005</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I248" s="5">
-        <f>I239+I242+I245</f>
+        <f t="shared" si="61"/>
         <v>2062741</v>
       </c>
       <c r="J248" s="5">
-        <f>J239+J242+J245</f>
+        <f t="shared" si="61"/>
         <v>2062741</v>
       </c>
       <c r="K248" s="5">
-        <f>K239+K242+K245</f>
+        <f t="shared" si="61"/>
         <v>2062741</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I252" s="5">
         <v>349952</v>
@@ -5196,7 +5257,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I253" s="5">
         <v>7.81</v>
@@ -5204,7 +5265,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I254" s="5">
         <v>9.06</v>
@@ -5212,7 +5273,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I255" s="5">
         <v>3638685</v>
@@ -5220,17 +5281,17 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K260" s="5">
         <v>175943</v>
@@ -5238,7 +5299,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K261" s="5">
         <v>5.46</v>
@@ -5246,7 +5307,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K262" s="5">
         <v>7.68</v>
@@ -5254,7 +5315,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K263" s="5">
         <v>676872</v>
@@ -5262,12 +5323,12 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I266" s="5">
         <v>153749</v>
@@ -5278,7 +5339,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I267" s="5">
         <v>9.56</v>
@@ -5289,7 +5350,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
@@ -5299,7 +5360,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
@@ -5309,7 +5370,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
@@ -5319,7 +5380,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J271" s="4"/>
       <c r="K271" s="4">
@@ -5328,7 +5389,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J272" s="4"/>
       <c r="K272" s="5">
@@ -5337,7 +5398,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K273" s="5">
         <v>9.07</v>

--- a/PLTR Model.xlsx
+++ b/PLTR Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3181AF7-36E0-D146-934B-4204F0B6E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D6739-40CB-D54D-B06C-0F86CAECAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="760" windowWidth="25220" windowHeight="14920" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
@@ -582,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -618,6 +618,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -646,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,6 +717,18 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,10 +1226,10 @@
   <dimension ref="A2:AE273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="44" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,15 +1412,19 @@
       <c r="K5" s="5">
         <v>262998</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="29">
         <v>273834</v>
       </c>
       <c r="M5" s="5">
         <f>T5-L5-K5-J5</f>
-        <v>-168424</v>
-      </c>
-      <c r="T5" s="4">
-        <v>610198</v>
+        <v>293154</v>
+      </c>
+      <c r="S5" s="33">
+        <f>SUM(F5:I5)</f>
+        <v>897356</v>
+      </c>
+      <c r="T5" s="32">
+        <v>1071776</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -1433,14 +1456,18 @@
       <c r="K6" s="5">
         <v>210012</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="29">
         <v>204046</v>
       </c>
       <c r="M6" s="5">
         <f>T6-L6-K6-J6</f>
         <v>-136150</v>
       </c>
-      <c r="T6" s="4">
+      <c r="S6" s="33">
+        <f>SUM(F6:I6)</f>
+        <v>644533</v>
+      </c>
+      <c r="T6" s="32">
         <v>482475</v>
       </c>
     </row>
@@ -1492,10 +1519,17 @@
         <f>L5+L6</f>
         <v>477880</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>157004</v>
+      </c>
+      <c r="S7" s="6">
+        <f>S5+S6</f>
+        <v>1541889</v>
+      </c>
       <c r="T7" s="6">
         <f>T5+T6</f>
-        <v>1092673</v>
+        <v>1554251</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1560,9 +1594,13 @@
         <f t="shared" si="4"/>
         <v>0.5730183309617477</v>
       </c>
+      <c r="S9" s="10">
+        <f t="shared" ref="S9:T9" si="5">S5/S$7</f>
+        <v>0.58198482510738447</v>
+      </c>
       <c r="T9" s="10">
-        <f t="shared" ref="T9" si="5">T5/T$7</f>
-        <v>0.5584452073035574</v>
+        <f t="shared" si="5"/>
+        <v>0.68957716610766218</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -1613,9 +1651,13 @@
         <f t="shared" si="7"/>
         <v>0.4269816690382523</v>
       </c>
+      <c r="S10" s="10">
+        <f t="shared" ref="S10:T10" si="8">S6/S$7</f>
+        <v>0.41801517489261547</v>
+      </c>
       <c r="T10" s="10">
-        <f t="shared" ref="T10" si="8">T6/T$7</f>
-        <v>0.4415547926964426</v>
+        <f t="shared" si="8"/>
+        <v>0.31042283389233788</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1669,6 +1711,14 @@
         <v>0.25706494794248891</v>
       </c>
       <c r="M12" s="27"/>
+      <c r="S12" s="34" t="e">
+        <f>S5/R5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="34">
+        <f>T5/S5-1</f>
+        <v>0.19437101885985042</v>
+      </c>
     </row>
     <row r="13" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
@@ -1707,6 +1757,14 @@
         <v>0.17059262233951</v>
       </c>
       <c r="M13" s="27"/>
+      <c r="S13" s="34" t="e">
+        <f t="shared" ref="S13:T14" si="10">S6/R6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="34">
+        <f t="shared" si="10"/>
+        <v>-0.25143475974077356</v>
+      </c>
     </row>
     <row r="14" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
@@ -1745,6 +1803,14 @@
         <v>0.21862775598884099</v>
       </c>
       <c r="M14" s="27"/>
+      <c r="S14" s="34" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="34">
+        <f t="shared" si="10"/>
+        <v>8.0174383499720392E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
@@ -1797,8 +1863,12 @@
       <c r="K17" s="5">
         <v>290223</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="29">
         <v>296650</v>
+      </c>
+      <c r="M17" s="5">
+        <f>T17-L17-K17-J17</f>
+        <v>-859786</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1821,8 +1891,12 @@
       <c r="K18" s="5">
         <v>52140</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="29">
         <v>59435</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" ref="M18:M19" si="11">T18-L18-K18-J18</f>
+        <v>-161477</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1845,8 +1919,12 @@
       <c r="K19" s="5">
         <v>130647</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="29">
         <v>121795</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="11"/>
+        <v>-375984</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -1862,11 +1940,11 @@
         <v>375642</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ref="H20:I20" si="10">H17+H18+H19</f>
+        <f t="shared" ref="H20:I20" si="12">H17+H18+H19</f>
         <v>392146</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
@@ -1891,27 +1969,27 @@
         <v>0.58155693746813042</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ref="G22:L22" si="11">G17/G$20</f>
+        <f t="shared" ref="G22:L22" si="13">G17/G$20</f>
         <v>0.53223547952571859</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.57959280472069075</v>
       </c>
       <c r="I22" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.61142314335834325</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.61356630938035139</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.62076253452749641</v>
       </c>
     </row>
@@ -1924,11 +2002,11 @@
         <v>0.10076662935111975</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" ref="G23:L24" si="12">G18/G$20</f>
+        <f t="shared" ref="G23:L24" si="14">G18/G$20</f>
         <v>0.1063113283392166</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12218408449914063</v>
       </c>
       <c r="I23" s="10" t="e">
@@ -1936,15 +2014,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.11179840352005234</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.1102302276907465</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12437222733740688</v>
       </c>
     </row>
@@ -1957,11 +2035,11 @@
         <v>0.31767643318074984</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.36145319213506477</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29822311078016861</v>
       </c>
       <c r="I24" s="10" t="e">
@@ -1969,15 +2047,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27677845312160443</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.27620346292890213</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.25486523813509665</v>
       </c>
     </row>
@@ -1994,23 +2072,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="28" t="e">
-        <f t="shared" ref="G26:K28" si="13">G22/C22-1</f>
+        <f t="shared" ref="G26:K28" si="15">G22/C22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1355600743477448E-2</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15280986139275732</v>
       </c>
       <c r="L26" s="28">
@@ -2028,31 +2106,31 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28" t="e">
-        <f t="shared" ref="F27:F28" si="14">F23/B23-1</f>
+        <f t="shared" ref="F27:F28" si="16">F23/B23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.1094784477755284</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.6862481287276649E-2</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" ref="L27:L28" si="15">L23/H23-1</f>
+        <f t="shared" ref="L27:L28" si="17">L23/H23-1</f>
         <v>1.7908574977141489E-2</v>
       </c>
       <c r="M27" s="27"/>
@@ -2066,31 +2144,31 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="28" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.12874099488480306</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.23585274957070301</v>
       </c>
       <c r="L28" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.14538736629647953</v>
       </c>
       <c r="M28" s="27"/>
@@ -2130,15 +2208,15 @@
         <v>118127</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:E31" si="16">C5</f>
+        <f t="shared" ref="C31:E31" si="18">C5</f>
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>162561</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F31" s="5">
@@ -2155,24 +2233,24 @@
         <v>238981</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="17">J5</f>
+        <f t="shared" ref="J31:L31" si="19">J5</f>
         <v>241790</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>262998</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>273834</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:T31" si="18">S5</f>
-        <v>0</v>
+        <f t="shared" ref="S31:T31" si="20">S5</f>
+        <v>897356</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="18"/>
-        <v>610198</v>
+        <f t="shared" si="20"/>
+        <v>1071776</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2184,15 +2262,15 @@
         <v>111200</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:E32" si="19">C6</f>
+        <f t="shared" ref="C32:E32" si="21">C6</f>
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>126805</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F32" s="5">
@@ -2209,23 +2287,23 @@
         <v>193886</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="20">J6</f>
+        <f t="shared" ref="J32:L32" si="22">J6</f>
         <v>204567</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>210012</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>204046</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" ref="S32:T32" si="21">S6</f>
-        <v>0</v>
+        <f t="shared" ref="S32:T32" si="23">S6</f>
+        <v>644533</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>482475</v>
       </c>
     </row>
@@ -2234,7 +2312,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" ref="B33:E33" si="22">B31+B32</f>
+        <f t="shared" ref="B33:E33" si="24">B31+B32</f>
         <v>229327</v>
       </c>
       <c r="C33" s="6">
@@ -2242,11 +2320,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>289366</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F33" s="6">
@@ -2258,11 +2336,11 @@
         <v>375642</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33" si="23">H31+H32</f>
+        <f t="shared" ref="H33" si="25">H31+H32</f>
         <v>392146</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" ref="I33" si="24">I31+I32</f>
+        <f t="shared" ref="I33" si="26">I31+I32</f>
         <v>432867</v>
       </c>
       <c r="J33" s="6">
@@ -2280,11 +2358,11 @@
       <c r="M33" s="6"/>
       <c r="S33" s="6">
         <f>S31+S32</f>
-        <v>0</v>
+        <v>1541889</v>
       </c>
       <c r="T33" s="6">
         <f>T31+T32</f>
-        <v>1092673</v>
+        <v>1554251</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2305,15 +2383,15 @@
         <v>0.51510288801580273</v>
       </c>
       <c r="C35" s="10" t="e">
-        <f t="shared" ref="C35:E35" si="25">C31/C$7</f>
+        <f t="shared" ref="C35:E35" si="27">C31/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.56178334704146304</v>
       </c>
       <c r="E35" s="10" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="10">
@@ -2321,19 +2399,19 @@
         <v>0.61078321620940468</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" ref="G35:K35" si="26">G31/G$7</f>
+        <f t="shared" ref="G35:J35" si="28">G31/G$7</f>
         <v>0.61792611049882606</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.55549718727208741</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.55208874781399364</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.54169644477402612</v>
       </c>
       <c r="K35" s="10">
@@ -2346,7 +2424,7 @@
       </c>
       <c r="T35" s="10">
         <f>T31/T$7</f>
-        <v>0.5584452073035574</v>
+        <v>0.68957716610766218</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2358,15 +2436,15 @@
         <v>0.48489711198419722</v>
       </c>
       <c r="C36" s="10" t="e">
-        <f t="shared" ref="C36:E36" si="27">C32/C$7</f>
+        <f t="shared" ref="C36:E36" si="29">C32/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="E36" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="10">
@@ -2374,32 +2452,32 @@
         <v>0.38921678379059532</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" ref="G36:L36" si="28">G32/G$7</f>
+        <f t="shared" ref="G36:L36" si="30">G32/G$7</f>
         <v>0.38207388950117399</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4269816690382523</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="29">T32/T$7</f>
-        <v>0.4415547926964426</v>
+        <f t="shared" ref="T36" si="31">T32/T$7</f>
+        <v>0.31042283389233788</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -2424,15 +2502,15 @@
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="25">
-        <f t="shared" ref="F38:L39" si="30">F35*F$64</f>
+        <f t="shared" ref="F38:L39" si="32">F35*F$64</f>
         <v>45265.754936495192</v>
       </c>
       <c r="G38" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>56185.549523216258</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>48219.377843966278</v>
       </c>
       <c r="I38" s="25">
@@ -2440,7 +2518,7 @@
         <v>48342.547024836727</v>
       </c>
       <c r="J38" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>51137.769476002388</v>
       </c>
       <c r="K38" s="25">
@@ -2448,7 +2526,7 @@
         <v>56837.503545379594</v>
       </c>
       <c r="L38" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>61663.075613124631</v>
       </c>
     </row>
@@ -2461,31 +2539,31 @@
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>28845.245063504812</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>34740.45047678375</v>
       </c>
       <c r="H39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>38584.622156033722</v>
       </c>
       <c r="I39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>39220.452975163273</v>
       </c>
       <c r="J39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>43265.230523997605</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>45386.496454620406</v>
       </c>
       <c r="L39" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>45947.924386875369</v>
       </c>
     </row>
@@ -2502,27 +2580,27 @@
         <v>74111</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" ref="G40:L40" si="31">G38+G39</f>
+        <f t="shared" ref="G40:L40" si="33">G38+G39</f>
         <v>90926</v>
       </c>
       <c r="H40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>86804</v>
       </c>
       <c r="I40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>87563</v>
       </c>
       <c r="J40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>94403</v>
       </c>
       <c r="K40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>102224</v>
       </c>
       <c r="L40" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>107611</v>
       </c>
     </row>
@@ -2552,11 +2630,11 @@
         <v>163154.24506350482</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" ref="G42:L42" si="32">G31-G38</f>
+        <f t="shared" ref="G42:L42" si="34">G31-G38</f>
         <v>175933.45047678374</v>
       </c>
       <c r="H42" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>169616.62215603373</v>
       </c>
       <c r="I42" s="25">
@@ -2564,15 +2642,15 @@
         <v>190638.45297516327</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>190652.23052399763</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>206160.49645462041</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>212170.92438687535</v>
       </c>
     </row>
@@ -2589,27 +2667,27 @@
         <v>103968.75493649518</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" ref="G43:L43" si="33">G32-G39</f>
+        <f t="shared" ref="G43:L43" si="35">G32-G39</f>
         <v>108782.54952321625</v>
       </c>
       <c r="H43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>135725.37784396627</v>
       </c>
       <c r="I43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>154665.54702483673</v>
       </c>
       <c r="J43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>161301.7694760024</v>
       </c>
       <c r="K43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>164625.50354537959</v>
       </c>
       <c r="L43" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>158098.07561312465</v>
       </c>
     </row>
@@ -2626,11 +2704,11 @@
         <v>267123</v>
       </c>
       <c r="G44" s="25">
-        <f t="shared" ref="G44:L44" si="34">G42+G43</f>
+        <f t="shared" ref="G44:L44" si="36">G42+G43</f>
         <v>284716</v>
       </c>
       <c r="H44" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>305342</v>
       </c>
       <c r="I44" s="25">
@@ -2638,15 +2716,15 @@
         <v>345304</v>
       </c>
       <c r="J44" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>351954</v>
       </c>
       <c r="K44" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>370786</v>
       </c>
       <c r="L44" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>370269</v>
       </c>
     </row>
@@ -2713,8 +2791,15 @@
       <c r="K47" s="25">
         <v>153642</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="30">
         <v>153552</v>
+      </c>
+      <c r="M47" s="29">
+        <f>T47-L47-K47-J47</f>
+        <v>173673</v>
+      </c>
+      <c r="T47" s="32">
+        <v>620677</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -2748,8 +2833,15 @@
       <c r="K48" s="25">
         <v>108885</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="30">
         <v>93148</v>
+      </c>
+      <c r="M48" s="29">
+        <f t="shared" ref="M48" si="37">T48-L48-K48-J48</f>
+        <v>3826855</v>
+      </c>
+      <c r="T48" s="32">
+        <v>4141496</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2786,47 +2878,47 @@
         <v>162</v>
       </c>
       <c r="B51" s="25">
-        <f t="shared" ref="B51:L51" si="35">B31-B47-B57+B$66*B35</f>
+        <f t="shared" ref="B51:L51" si="38">B31-B47-B57+B$66*B35</f>
         <v>66230</v>
       </c>
       <c r="C51" s="25" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>81762.707387875562</v>
       </c>
       <c r="E51" s="25" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>38296.047392698267</v>
       </c>
       <c r="G51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>47871.545977286878</v>
       </c>
       <c r="H51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>46879.754622003027</v>
       </c>
       <c r="I51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>46778.405838282895</v>
       </c>
       <c r="J51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>48061.702672972533</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>49162.979805923766</v>
       </c>
       <c r="L51" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>49474.697861387802</v>
       </c>
     </row>
@@ -2835,47 +2927,47 @@
         <v>71</v>
       </c>
       <c r="B52" s="25">
-        <f t="shared" ref="B52:L52" si="36">B32-B48-B58+B$66*B36</f>
+        <f t="shared" ref="B52:L52" si="39">B32-B48-B58+B$66*B36</f>
         <v>70186</v>
       </c>
       <c r="C52" s="25" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>67577.292612124438</v>
       </c>
       <c r="E52" s="25" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>35814.952607301733</v>
       </c>
       <c r="G52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>43054.454022713115</v>
       </c>
       <c r="H52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>39924.245377996973</v>
       </c>
       <c r="I52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>40784.594161717112</v>
       </c>
       <c r="J52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>46341.297327027474</v>
       </c>
       <c r="K52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>53061.020194076234</v>
       </c>
       <c r="L52" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>58136.302138612205</v>
       </c>
     </row>
@@ -2884,47 +2976,47 @@
         <v>175</v>
       </c>
       <c r="B53" s="25">
-        <f t="shared" ref="B53:L53" si="37">B51-B$66*B35</f>
+        <f t="shared" ref="B53:L53" si="40">B51-B$66*B35</f>
         <v>66230</v>
       </c>
       <c r="C53" s="25" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>28738.786177367074</v>
       </c>
       <c r="E53" s="25" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>28537.56394732061</v>
       </c>
       <c r="G53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>33023.399468110583</v>
       </c>
       <c r="H53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>38625.06641913981</v>
       </c>
       <c r="I53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>39225.831768187461</v>
       </c>
       <c r="J53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>41736.313287346231</v>
       </c>
       <c r="K53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>42929.558571700385</v>
       </c>
       <c r="L53" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>43443.679928015408</v>
       </c>
     </row>
@@ -2933,47 +3025,47 @@
         <v>176</v>
       </c>
       <c r="B54" s="25">
-        <f t="shared" ref="B54:L54" si="38">B52-B$66*B36</f>
+        <f t="shared" ref="B54:L54" si="41">B52-B$66*B36</f>
         <v>70186</v>
       </c>
       <c r="C54" s="25" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>26216.213822632926</v>
       </c>
       <c r="E54" s="25" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>29596.43605267939</v>
       </c>
       <c r="G54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>33873.600531889402</v>
       </c>
       <c r="H54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>33318.93358086019</v>
       </c>
       <c r="I54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>34657.168231812546</v>
       </c>
       <c r="J54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>40989.686712653776</v>
       </c>
       <c r="K54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>48083.441428299615</v>
       </c>
       <c r="L54" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>53642.320071984599</v>
       </c>
     </row>
@@ -3011,39 +3103,39 @@
         <v>164</v>
       </c>
       <c r="B57" s="25">
-        <f t="shared" ref="B57:J57" si="39">B35*B69</f>
+        <f t="shared" ref="B57:J57" si="42">B35*B69</f>
         <v>0</v>
       </c>
       <c r="C57" s="25" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>39860.213822632926</v>
       </c>
       <c r="E57" s="25" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>48136.43605267939</v>
       </c>
       <c r="G57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>55842.600531889409</v>
       </c>
       <c r="H57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>53504.93358086019</v>
       </c>
       <c r="I57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>58577.168231812539</v>
       </c>
       <c r="J57" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>60243.686712653769</v>
       </c>
       <c r="K57" s="25">
@@ -3060,39 +3152,39 @@
         <v>165</v>
       </c>
       <c r="B58" s="25">
-        <f t="shared" ref="B58:J58" si="40">B36*B$69</f>
+        <f t="shared" ref="B58:J58" si="43">B36*B$69</f>
         <v>0</v>
       </c>
       <c r="C58" s="25" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>31092.786177367074</v>
       </c>
       <c r="E58" s="25" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>30674.563947320607</v>
       </c>
       <c r="G58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>34528.399468110598</v>
       </c>
       <c r="H58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>42814.06641913981</v>
       </c>
       <c r="I58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>47523.831768187454</v>
       </c>
       <c r="J58" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>50969.313287346224</v>
       </c>
       <c r="K58" s="25">
@@ -3171,15 +3263,19 @@
         <v>392146</v>
       </c>
       <c r="I63" s="12">
+        <f>I33</f>
         <v>432867</v>
       </c>
       <c r="J63" s="12">
+        <f t="shared" ref="J63:L63" si="44">J33</f>
         <v>446357</v>
       </c>
       <c r="K63" s="12">
+        <f t="shared" si="44"/>
         <v>473010</v>
       </c>
       <c r="L63" s="12">
+        <f t="shared" si="44"/>
         <v>477880</v>
       </c>
       <c r="M63" s="12"/>
@@ -3216,7 +3312,7 @@
       <c r="K64" s="14">
         <v>102224</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="31">
         <v>107611</v>
       </c>
       <c r="M64" s="14"/>
@@ -3230,15 +3326,15 @@
         <v>0</v>
       </c>
       <c r="C65" s="14">
-        <f t="shared" ref="C65:E65" si="41">C64-C66</f>
+        <f t="shared" ref="C65:E65" si="45">C64-C66</f>
         <v>68410</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>54955</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>70503</v>
       </c>
       <c r="F65" s="14">
@@ -3246,15 +3342,15 @@
         <v>58134</v>
       </c>
       <c r="G65" s="14">
-        <f t="shared" ref="G65:I65" si="42">G64-G66</f>
+        <f t="shared" ref="G65:I65" si="46">G64-G66</f>
         <v>66897</v>
       </c>
       <c r="H65" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>71944</v>
       </c>
       <c r="I65" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>73883</v>
       </c>
       <c r="J65" s="14">
@@ -3300,7 +3396,7 @@
       <c r="K66" s="14">
         <v>11211</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="31">
         <v>10525</v>
       </c>
       <c r="M66" s="14"/>
@@ -3311,43 +3407,43 @@
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14">
-        <f t="shared" ref="C67:L67" si="43">(C63-C64)</f>
+        <f t="shared" ref="C67:L67" si="47">(C63-C64)</f>
         <v>183479</v>
       </c>
       <c r="D67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>140026</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>251588</v>
       </c>
       <c r="F67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>267123</v>
       </c>
       <c r="G67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>284716</v>
       </c>
       <c r="H67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>305342</v>
       </c>
       <c r="I67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>345304</v>
       </c>
       <c r="J67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>351954</v>
       </c>
       <c r="K67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>370786</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>370269</v>
       </c>
       <c r="M67" s="14"/>
@@ -3384,10 +3480,17 @@
       <c r="K68" s="14">
         <v>168875</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="31">
         <v>182918</v>
       </c>
       <c r="M68" s="14"/>
+      <c r="S68" s="33">
+        <f>SUM(F68:I68)</f>
+        <v>614512</v>
+      </c>
+      <c r="T68" s="33">
+        <v>702511</v>
+      </c>
     </row>
     <row r="69" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
@@ -3398,15 +3501,15 @@
         <v>0</v>
       </c>
       <c r="C69" s="14">
-        <f t="shared" ref="C69" si="44">C68-C70</f>
+        <f t="shared" ref="C69" si="48">C68-C70</f>
         <v>102518</v>
       </c>
       <c r="D69" s="14">
-        <f t="shared" ref="D69" si="45">D68-D70</f>
+        <f t="shared" ref="D69" si="49">D68-D70</f>
         <v>70953</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" ref="E69" si="46">E68-E70</f>
+        <f t="shared" ref="E69" si="50">E68-E70</f>
         <v>147619</v>
       </c>
       <c r="F69" s="14">
@@ -3414,15 +3517,15 @@
         <v>78811</v>
       </c>
       <c r="G69" s="14">
-        <f t="shared" ref="G69:I69" si="47">G68-G70</f>
+        <f t="shared" ref="G69:I69" si="51">G68-G70</f>
         <v>90371</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>96319</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>106101</v>
       </c>
       <c r="J69" s="14">
@@ -3468,7 +3571,7 @@
       <c r="K70" s="14">
         <v>49405</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="31">
         <v>48824</v>
       </c>
       <c r="M70" s="14"/>
@@ -3505,10 +3608,17 @@
       <c r="K71" s="14">
         <v>88171</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="31">
         <v>100863</v>
       </c>
       <c r="M71" s="14"/>
+      <c r="S71" s="33">
+        <f>SUM(F71:I71)</f>
+        <v>387487</v>
+      </c>
+      <c r="T71" s="33">
+        <v>359679</v>
+      </c>
     </row>
     <row r="72" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
@@ -3519,15 +3629,15 @@
         <v>0</v>
       </c>
       <c r="C72" s="14">
-        <f t="shared" ref="C72" si="48">C71-C73</f>
+        <f t="shared" ref="C72" si="52">C71-C73</f>
         <v>86815</v>
       </c>
       <c r="D72" s="14">
-        <f t="shared" ref="D72" si="49">D71-D73</f>
+        <f t="shared" ref="D72" si="53">D71-D73</f>
         <v>57146</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" ref="E72" si="50">E71-E73</f>
+        <f t="shared" ref="E72" si="54">E71-E73</f>
         <v>94130</v>
       </c>
       <c r="F72" s="14">
@@ -3535,15 +3645,15 @@
         <v>60597</v>
       </c>
       <c r="G72" s="14">
-        <f t="shared" ref="G72:I72" si="51">G71-G73</f>
+        <f t="shared" ref="G72:I72" si="55">G71-G73</f>
         <v>59894</v>
       </c>
       <c r="H72" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>59844</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>56854</v>
       </c>
       <c r="J72" s="14">
@@ -3553,7 +3663,7 @@
       <c r="K72" s="14">
         <v>63193</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="31">
         <v>75750</v>
       </c>
       <c r="M72" s="14"/>
@@ -3588,7 +3698,7 @@
         <f>K71-K72</f>
         <v>24978</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="31">
         <v>25113</v>
       </c>
       <c r="M73" s="14"/>
@@ -3625,10 +3735,17 @@
       <c r="K74" s="14">
         <v>155485</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="31">
         <v>148679</v>
       </c>
       <c r="M74" s="14"/>
+      <c r="S74" s="33">
+        <f>SUM(F74:I74)</f>
+        <v>611532</v>
+      </c>
+      <c r="T74" s="33">
+        <v>596333</v>
+      </c>
     </row>
     <row r="75" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
@@ -3639,15 +3756,15 @@
         <v>0</v>
       </c>
       <c r="C75" s="14">
-        <f t="shared" ref="C75:E75" si="52">C74-C76</f>
+        <f t="shared" ref="C75:E75" si="56">C74-C76</f>
         <v>93291</v>
       </c>
       <c r="D75" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>107130</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>166411</v>
       </c>
       <c r="F75" s="14">
@@ -3655,15 +3772,15 @@
         <v>63975</v>
       </c>
       <c r="G75" s="14">
-        <f t="shared" ref="G75:I75" si="53">G74-G76</f>
+        <f t="shared" ref="G75:I75" si="57">G74-G76</f>
         <v>71886</v>
       </c>
       <c r="H75" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>71145</v>
       </c>
       <c r="I75" s="14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>88065</v>
       </c>
       <c r="J75" s="14">
@@ -3709,7 +3826,7 @@
         <f>K74-K75</f>
         <v>60175</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="31">
         <v>55846</v>
       </c>
       <c r="M76" s="14"/>
@@ -3724,39 +3841,39 @@
         <v>282624</v>
       </c>
       <c r="D77" s="14">
-        <f t="shared" ref="D77:L77" si="54">D68+D71+D74</f>
+        <f t="shared" ref="D77:L77" si="58">D68+D71+D74</f>
         <v>987803</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>408160</v>
       </c>
       <c r="F77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>381137</v>
       </c>
       <c r="G77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>430864</v>
       </c>
       <c r="H77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>397283</v>
       </c>
       <c r="I77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>404247</v>
       </c>
       <c r="J77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>391393</v>
       </c>
       <c r="K77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>412531</v>
       </c>
       <c r="L77" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>432460</v>
       </c>
       <c r="M77" s="14"/>
@@ -3771,31 +3888,31 @@
         <v>-99145</v>
       </c>
       <c r="D78" s="12">
-        <f t="shared" ref="D78:L78" si="55">D67-D77</f>
+        <f t="shared" ref="D78:L78" si="59">D67-D77</f>
         <v>-847777</v>
       </c>
       <c r="E78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-156572</v>
       </c>
       <c r="F78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-114014</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-146148</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-91941</v>
       </c>
       <c r="I78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-58943</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-39439</v>
       </c>
       <c r="K78" s="12">
@@ -3803,7 +3920,7 @@
         <v>-41745</v>
       </c>
       <c r="L78" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>-62191</v>
       </c>
       <c r="M78" s="12"/>
@@ -3833,7 +3950,7 @@
       <c r="K79" s="14">
         <v>1472</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="31">
         <v>5540</v>
       </c>
       <c r="M79" s="14"/>
@@ -3863,7 +3980,7 @@
       <c r="K80" s="14">
         <v>-670</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="31">
         <v>-1082</v>
       </c>
       <c r="M80" s="14"/>
@@ -3897,7 +4014,7 @@
       <c r="K81" s="14">
         <v>-135798</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="31">
         <v>-65046</v>
       </c>
       <c r="M81" s="14"/>
@@ -3912,35 +4029,35 @@
         <v>-99145</v>
       </c>
       <c r="D82" s="14">
-        <f t="shared" ref="D82:K82" si="56">D78+D79+D80+D81</f>
+        <f t="shared" ref="D82:K82" si="60">D78+D79+D80+D81</f>
         <v>-861862</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-156572</v>
       </c>
       <c r="F82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-120372</v>
       </c>
       <c r="G82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-146148</v>
       </c>
       <c r="H82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-91941</v>
       </c>
       <c r="I82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-130033</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-99356</v>
       </c>
       <c r="K82" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>-176741</v>
       </c>
       <c r="L82" s="14">
@@ -3982,7 +4099,7 @@
       <c r="K83" s="14">
         <v>2588</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="31">
         <v>1096</v>
       </c>
       <c r="M83" s="14"/>
@@ -3997,27 +4114,27 @@
         <v>-100088</v>
       </c>
       <c r="D84" s="12">
-        <f t="shared" ref="D84:L84" si="57">(D82-D83)</f>
+        <f t="shared" ref="D84:L84" si="61">(D82-D83)</f>
         <v>-853319</v>
       </c>
       <c r="E84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-148979</v>
       </c>
       <c r="F84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-123474</v>
       </c>
       <c r="G84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-140487</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-93379</v>
       </c>
       <c r="I84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-163039</v>
       </c>
       <c r="J84" s="12">
@@ -4025,11 +4142,11 @@
         <v>-101379</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-179329</v>
       </c>
       <c r="L84" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>-123875</v>
       </c>
       <c r="M84" s="12"/>
@@ -4049,7 +4166,7 @@
       <c r="K85" s="14">
         <v>2054799</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="31">
         <v>2073265</v>
       </c>
       <c r="M85" s="15"/>
@@ -4087,39 +4204,39 @@
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="17">
-        <f t="shared" ref="D89:L89" si="58">D63/C63-1</f>
+        <f t="shared" ref="D89:L89" si="62">D63/C63-1</f>
         <v>0.14878378968513917</v>
       </c>
       <c r="E89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0.11309207025013301</v>
       </c>
       <c r="F89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>5.9433514131099541E-2</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0.10083403177877948</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>4.3935449177674446E-2</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0.10384142640751159</v>
       </c>
       <c r="J89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>3.1164306819415621E-2</v>
       </c>
       <c r="K89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>5.9712293074825729E-2</v>
       </c>
       <c r="L89" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1.0295765417221547E-2</v>
       </c>
       <c r="M89" s="18"/>
@@ -4638,47 +4755,47 @@
         <v>0</v>
       </c>
       <c r="C128" s="14">
-        <f t="shared" ref="C128:M128" si="59">C84</f>
+        <f t="shared" ref="C128:M128" si="63">C84</f>
         <v>-100088</v>
       </c>
       <c r="D128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-853319</v>
       </c>
       <c r="E128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-148979</v>
       </c>
       <c r="F128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-123474</v>
       </c>
       <c r="G128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-140487</v>
       </c>
       <c r="H128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-93379</v>
       </c>
       <c r="I128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-163039</v>
       </c>
       <c r="J128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-101379</v>
       </c>
       <c r="K128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-179329</v>
       </c>
       <c r="L128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>-123875</v>
       </c>
       <c r="M128" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -4978,15 +5095,15 @@
         <v>793362</v>
       </c>
       <c r="J210" s="5">
-        <f t="shared" ref="J210:L210" si="60">J205+J206+J207+J208</f>
+        <f t="shared" ref="J210:L210" si="64">J205+J206+J207+J208</f>
         <v>0</v>
       </c>
       <c r="K210" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="L210" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1003844</v>
       </c>
     </row>
@@ -5205,15 +5322,15 @@
         <v>94</v>
       </c>
       <c r="I247" s="5">
-        <f t="shared" ref="I247:K248" si="61">I238+I241+I244</f>
+        <f t="shared" ref="I247:K248" si="65">I238+I241+I244</f>
         <v>22701005</v>
       </c>
       <c r="J247" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>22701005</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>22701005</v>
       </c>
     </row>
@@ -5222,15 +5339,15 @@
         <v>95</v>
       </c>
       <c r="I248" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2062741</v>
       </c>
       <c r="J248" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2062741</v>
       </c>
       <c r="K248" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2062741</v>
       </c>
     </row>

--- a/PLTR Model.xlsx
+++ b/PLTR Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2D6739-40CB-D54D-B06C-0F86CAECAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C634639B-C62E-5F4E-9CE0-4024CDB51155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="760" windowWidth="25220" windowHeight="14920" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="3600" yWindow="760" windowWidth="25220" windowHeight="18880" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="182">
   <si>
     <t>Price</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Q122</t>
   </si>
   <si>
-    <t>Pretax Income</t>
-  </si>
-  <si>
     <t>Net Income</t>
   </si>
   <si>
@@ -557,9 +554,6 @@
     <t>FY30E</t>
   </si>
   <si>
-    <t>EPS</t>
-  </si>
-  <si>
     <t>Basic Shares</t>
   </si>
   <si>
@@ -576,18 +570,40 @@
   </si>
   <si>
     <t>FY22A</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Diluted Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -649,88 +665,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -759,7 +788,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>14619</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>18676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -804,13 +833,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>13731</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>195384</xdr:rowOff>
+      <xdr:rowOff>169984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>13731</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>195384</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>169984</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -825,8 +854,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16436893" y="195384"/>
-          <a:ext cx="0" cy="23511282"/>
+          <a:off x="16726931" y="169984"/>
+          <a:ext cx="0" cy="24384000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1223,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A2:AE273"/>
+  <dimension ref="A2:AE282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="44" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="44" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,81 +1273,85 @@
     <col min="10" max="10" width="12" style="5" customWidth="1"/>
     <col min="11" max="12" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.1640625" style="5"/>
-    <col min="14" max="16384" width="8.83203125" style="4"/>
+    <col min="14" max="17" width="8.83203125" style="4"/>
+    <col min="18" max="18" width="10.5" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="S2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="AA2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -1368,7 +1401,7 @@
     </row>
     <row r="4" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1385,7 +1418,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5">
         <v>118127</v>
@@ -1419,6 +1452,9 @@
         <f>T5-L5-K5-J5</f>
         <v>293154</v>
       </c>
+      <c r="R5" s="32">
+        <v>610198</v>
+      </c>
       <c r="S5" s="33">
         <f>SUM(F5:I5)</f>
         <v>897356</v>
@@ -1429,7 +1465,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5">
         <v>111200</v>
@@ -1461,19 +1497,22 @@
       </c>
       <c r="M6" s="5">
         <f>T6-L6-K6-J6</f>
-        <v>-136150</v>
+        <v>215470</v>
+      </c>
+      <c r="R6" s="32">
+        <v>482475</v>
       </c>
       <c r="S6" s="33">
         <f>SUM(F6:I6)</f>
         <v>644533</v>
       </c>
       <c r="T6" s="32">
-        <v>482475</v>
+        <v>834095</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="6">
         <f>B5+B6</f>
@@ -1521,7 +1560,11 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>157004</v>
+        <v>508624</v>
+      </c>
+      <c r="R7" s="6">
+        <f>R5+R6</f>
+        <v>1092673</v>
       </c>
       <c r="S7" s="6">
         <f>S5+S6</f>
@@ -1529,7 +1572,7 @@
       </c>
       <c r="T7" s="6">
         <f>T5+T6</f>
-        <v>1554251</v>
+        <v>1905871</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1548,7 +1591,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="10">
         <f>B5/B$7</f>
@@ -1594,33 +1637,37 @@
         <f t="shared" si="4"/>
         <v>0.5730183309617477</v>
       </c>
+      <c r="R9" s="10">
+        <f t="shared" ref="R9" si="5">R5/R$7</f>
+        <v>0.5584452073035574</v>
+      </c>
       <c r="S9" s="10">
-        <f t="shared" ref="S9:T9" si="5">S5/S$7</f>
+        <f t="shared" ref="S9:T9" si="6">S5/S$7</f>
         <v>0.58198482510738447</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="5"/>
-        <v>0.68957716610766218</v>
+        <f t="shared" si="6"/>
+        <v>0.562354954768712</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="10">
         <f>B6/B$7</f>
         <v>0.48489711198419722</v>
       </c>
       <c r="C10" s="10" t="e">
-        <f t="shared" ref="C10:E10" si="6">C6/C$7</f>
+        <f t="shared" ref="C10:E10" si="7">C6/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="E10" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="10">
@@ -1628,36 +1675,40 @@
         <v>0.38921678379059532</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" ref="G10:L10" si="7">G6/G$7</f>
+        <f t="shared" ref="G10:L10" si="8">G6/G$7</f>
         <v>0.38207388950117399</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4269816690382523</v>
       </c>
+      <c r="R10" s="10">
+        <f t="shared" ref="R10" si="9">R6/R$7</f>
+        <v>0.4415547926964426</v>
+      </c>
       <c r="S10" s="10">
-        <f t="shared" ref="S10:T10" si="8">S6/S$7</f>
+        <f t="shared" ref="S10:T10" si="10">S6/S$7</f>
         <v>0.41801517489261547</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="8"/>
-        <v>0.31042283389233788</v>
+        <f t="shared" si="10"/>
+        <v>0.43764504523128794</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1676,44 +1727,44 @@
     </row>
     <row r="12" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="28">
-        <f t="shared" ref="F12:L14" si="9">F5/B5-1</f>
+        <f t="shared" ref="F12:L14" si="11">F5/B5-1</f>
         <v>0.76437224343291543</v>
       </c>
       <c r="G12" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.34002620554745611</v>
       </c>
       <c r="I12" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16010939449189143</v>
       </c>
       <c r="K12" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.13303090225272385</v>
       </c>
       <c r="L12" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.25706494794248891</v>
       </c>
       <c r="M12" s="27"/>
-      <c r="S12" s="34" t="e">
+      <c r="S12" s="34">
         <f>S5/R5-1</f>
-        <v>#DIV/0!</v>
+        <v>0.47059806816803729</v>
       </c>
       <c r="T12" s="34">
         <f>T5/S5-1</f>
@@ -1722,94 +1773,94 @@
     </row>
     <row r="13" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19437050359712238</v>
       </c>
       <c r="G13" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37463033792042899</v>
       </c>
       <c r="I13" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.54025178068577118</v>
       </c>
       <c r="K13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.46326372776488789</v>
       </c>
       <c r="L13" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.17059262233951</v>
       </c>
       <c r="M13" s="27"/>
-      <c r="S13" s="34" t="e">
-        <f t="shared" ref="S13:T14" si="10">S6/R6-1</f>
-        <v>#DIV/0!</v>
+      <c r="S13" s="34">
+        <f t="shared" ref="S13:T14" si="12">S6/R6-1</f>
+        <v>0.33588890616094091</v>
       </c>
       <c r="T13" s="34">
-        <f t="shared" si="10"/>
-        <v>-0.25143475974077356</v>
+        <f t="shared" si="12"/>
+        <v>0.29410751660504575</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.48798004596057165</v>
       </c>
       <c r="G14" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35519031261447442</v>
       </c>
       <c r="I14" s="28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J14" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.3080671914287556</v>
       </c>
       <c r="K14" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.25920424233711881</v>
       </c>
       <c r="L14" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21862775598884099</v>
       </c>
       <c r="M14" s="27"/>
-      <c r="S14" s="34" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+      <c r="S14" s="34">
+        <f t="shared" si="12"/>
+        <v>0.41111659206368234</v>
       </c>
       <c r="T14" s="34">
-        <f t="shared" si="10"/>
-        <v>8.0174383499720392E-3</v>
+        <f t="shared" si="12"/>
+        <v>0.23606238840798532</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1828,7 +1879,7 @@
     </row>
     <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1845,7 +1896,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="5">
         <f>398377-G17</f>
@@ -1868,12 +1919,21 @@
       </c>
       <c r="M17" s="5">
         <f>T17-L17-K17-J17</f>
-        <v>-859786</v>
+        <v>301630</v>
+      </c>
+      <c r="R17" s="32">
+        <v>573549</v>
+      </c>
+      <c r="S17" s="32">
+        <v>879156</v>
+      </c>
+      <c r="T17" s="32">
+        <v>1161416</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="5">
         <f>74320-G18</f>
@@ -1895,13 +1955,22 @@
         <v>59435</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ref="M18:M19" si="11">T18-L18-K18-J18</f>
-        <v>-161477</v>
+        <f t="shared" ref="M18:M19" si="13">T18-L18-K18-J18</f>
+        <v>59465</v>
+      </c>
+      <c r="R18" s="32">
+        <v>132427</v>
+      </c>
+      <c r="S18" s="32">
+        <v>173362</v>
+      </c>
+      <c r="T18" s="32">
+        <v>220942</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="5">
         <f>244179-G19</f>
@@ -1923,13 +1992,22 @@
         <v>121795</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="11"/>
-        <v>-375984</v>
+        <f t="shared" si="13"/>
+        <v>147529</v>
+      </c>
+      <c r="R19" s="32">
+        <v>386697</v>
+      </c>
+      <c r="S19" s="32">
+        <v>489371</v>
+      </c>
+      <c r="T19" s="32">
+        <v>523513</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="5">
         <f>F17+F18+F19</f>
@@ -1940,11 +2018,11 @@
         <v>375642</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ref="H20:I20" si="12">H17+H18+H19</f>
+        <f t="shared" ref="H20:I20" si="14">H17+H18+H19</f>
         <v>392146</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
@@ -1959,54 +2037,82 @@
         <f>L17+L18+L19</f>
         <v>477880</v>
       </c>
+      <c r="M20" s="5">
+        <f>M17+M18+M19</f>
+        <v>508624</v>
+      </c>
+      <c r="R20" s="5">
+        <f>R17+R18+R19</f>
+        <v>1092673</v>
+      </c>
+      <c r="S20" s="5">
+        <f>S17+S18+S19</f>
+        <v>1541889</v>
+      </c>
+      <c r="T20" s="5">
+        <f>T17+T18+T19</f>
+        <v>1905871</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="10">
         <f>F17/F$20</f>
         <v>0.58155693746813042</v>
       </c>
       <c r="G22" s="10">
-        <f t="shared" ref="G22:L22" si="13">G17/G$20</f>
+        <f t="shared" ref="G22:L22" si="15">G17/G$20</f>
         <v>0.53223547952571859</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.57959280472069075</v>
       </c>
       <c r="I22" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.61142314335834325</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.61356630938035139</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.62076253452749641</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22:T22" si="16">R17/R$20</f>
+        <v>0.52490452312814539</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="16"/>
+        <v>0.57018112198738047</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="16"/>
+        <v>0.60938856827140975</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="10">
         <f>F18/F$20</f>
         <v>0.10076662935111975</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" ref="G23:L24" si="14">G18/G$20</f>
+        <f t="shared" ref="G23:L24" si="17">G18/G$20</f>
         <v>0.1063113283392166</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12218408449914063</v>
       </c>
       <c r="I23" s="10" t="e">
@@ -2014,32 +2120,44 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.11179840352005234</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.1102302276907465</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.12437222733740688</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" ref="R23:T23" si="18">R18/R$20</f>
+        <v>0.12119545371762641</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="18"/>
+        <v>0.11243481210385443</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="18"/>
+        <v>0.11592704857778936</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="10">
         <f>F19/F$20</f>
         <v>0.31767643318074984</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.36145319213506477</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.29822311078016861</v>
       </c>
       <c r="I24" s="10" t="e">
@@ -2047,21 +2165,33 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.27677845312160443</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.27620346292890213</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.25486523813509665</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" ref="R24:T24" si="19">R19/R$20</f>
+        <v>0.35390002315422819</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="19"/>
+        <v>0.31738406590876517</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="19"/>
+        <v>0.27468438315080085</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -2072,23 +2202,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G26" s="28" t="e">
-        <f t="shared" ref="G26:K28" si="15">G22/C22-1</f>
+        <f t="shared" ref="G26:K28" si="20">G22/C22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.1355600743477448E-2</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.15280986139275732</v>
       </c>
       <c r="L26" s="28">
@@ -2096,82 +2226,106 @@
         <v>7.1032161668476146E-2</v>
       </c>
       <c r="M26" s="27"/>
+      <c r="S26" s="34">
+        <f>S17/R17-1</f>
+        <v>0.53283503240350871</v>
+      </c>
+      <c r="T26" s="34">
+        <f>T17/S17-1</f>
+        <v>0.32105792373594677</v>
+      </c>
     </row>
     <row r="27" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="28" t="e">
-        <f t="shared" ref="F27:F28" si="16">F23/B23-1</f>
+        <f t="shared" ref="F27:F28" si="21">F23/B23-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.1094784477755284</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6862481287276649E-2</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" ref="L27:L28" si="17">L23/H23-1</f>
+        <f t="shared" ref="L27:L28" si="22">L23/H23-1</f>
         <v>1.7908574977141489E-2</v>
       </c>
       <c r="M27" s="27"/>
+      <c r="S27" s="34">
+        <f t="shared" ref="S27:T28" si="23">S18/R18-1</f>
+        <v>0.30911370037832153</v>
+      </c>
+      <c r="T27" s="34">
+        <f t="shared" si="23"/>
+        <v>0.2744546094299789</v>
+      </c>
     </row>
     <row r="28" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="28" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="28" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-0.12874099488480306</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>-0.23585274957070301</v>
       </c>
       <c r="L28" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-0.14538736629647953</v>
       </c>
       <c r="M28" s="27"/>
+      <c r="S28" s="34">
+        <f t="shared" si="23"/>
+        <v>0.26551537767295841</v>
+      </c>
+      <c r="T28" s="34">
+        <f t="shared" si="23"/>
+        <v>6.9767109207533817E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F29" s="10"/>
@@ -2184,7 +2338,7 @@
     </row>
     <row r="30" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2201,22 +2355,22 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5">
         <f>B5</f>
         <v>118127</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:E31" si="18">C5</f>
+        <f t="shared" ref="C31:E31" si="24">C5</f>
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>162561</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F31" s="5">
@@ -2233,44 +2387,48 @@
         <v>238981</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:L31" si="19">J5</f>
+        <f t="shared" ref="J31:L31" si="25">J5</f>
         <v>241790</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>262998</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>273834</v>
       </c>
+      <c r="R31" s="5">
+        <f t="shared" ref="R31" si="26">R5</f>
+        <v>610198</v>
+      </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:T31" si="20">S5</f>
+        <f t="shared" ref="S31:T31" si="27">S5</f>
         <v>897356</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1071776</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5">
         <f>B6</f>
         <v>111200</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:E32" si="21">C6</f>
+        <f t="shared" ref="C32:E32" si="28">C6</f>
         <v>0</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>126805</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F32" s="5">
@@ -2287,32 +2445,36 @@
         <v>193886</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32:L32" si="22">J6</f>
+        <f t="shared" ref="J32:L32" si="29">J6</f>
         <v>204567</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>210012</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>204046</v>
       </c>
+      <c r="R32" s="5">
+        <f t="shared" ref="R32" si="30">R6</f>
+        <v>482475</v>
+      </c>
       <c r="S32" s="5">
-        <f t="shared" ref="S32:T32" si="23">S6</f>
+        <f t="shared" ref="S32:T32" si="31">S6</f>
         <v>644533</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="23"/>
-        <v>482475</v>
+        <f t="shared" si="31"/>
+        <v>834095</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" ref="B33:E33" si="24">B31+B32</f>
+        <f t="shared" ref="B33:E33" si="32">B31+B32</f>
         <v>229327</v>
       </c>
       <c r="C33" s="6">
@@ -2320,11 +2482,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>289366</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F33" s="6">
@@ -2336,11 +2498,11 @@
         <v>375642</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33" si="25">H31+H32</f>
+        <f t="shared" ref="H33" si="33">H31+H32</f>
         <v>392146</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" ref="I33" si="26">I31+I32</f>
+        <f t="shared" ref="I33" si="34">I31+I32</f>
         <v>432867</v>
       </c>
       <c r="J33" s="6">
@@ -2356,13 +2518,17 @@
         <v>477880</v>
       </c>
       <c r="M33" s="6"/>
+      <c r="R33" s="6">
+        <f>R31+R32</f>
+        <v>1092673</v>
+      </c>
       <c r="S33" s="6">
         <f>S31+S32</f>
         <v>1541889</v>
       </c>
       <c r="T33" s="6">
         <f>T31+T32</f>
-        <v>1554251</v>
+        <v>1905871</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2376,22 +2542,22 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="10">
         <f>B31/B$7</f>
         <v>0.51510288801580273</v>
       </c>
       <c r="C35" s="10" t="e">
-        <f t="shared" ref="C35:E35" si="27">C31/C$7</f>
+        <f t="shared" ref="C35:E35" si="35">C31/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0.56178334704146304</v>
       </c>
       <c r="E35" s="10" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="10">
@@ -2399,19 +2565,19 @@
         <v>0.61078321620940468</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" ref="G35:J35" si="28">G31/G$7</f>
+        <f t="shared" ref="G35:J35" si="36">G31/G$7</f>
         <v>0.61792611049882606</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.55549718727208741</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.55208874781399364</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0.54169644477402612</v>
       </c>
       <c r="K35" s="10">
@@ -2422,29 +2588,37 @@
         <f>L31/L$7</f>
         <v>0.5730183309617477</v>
       </c>
+      <c r="R35" s="10">
+        <f>R31/R$7</f>
+        <v>0.5584452073035574</v>
+      </c>
+      <c r="S35" s="10">
+        <f>S31/S$7</f>
+        <v>0.58198482510738447</v>
+      </c>
       <c r="T35" s="10">
         <f>T31/T$7</f>
-        <v>0.68957716610766218</v>
+        <v>0.562354954768712</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="10">
         <f>B32/B$7</f>
         <v>0.48489711198419722</v>
       </c>
       <c r="C36" s="10" t="e">
-        <f t="shared" ref="C36:E36" si="29">C32/C$7</f>
+        <f t="shared" ref="C36:E36" si="37">C32/C$7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.43821665295853696</v>
       </c>
       <c r="E36" s="10" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="10">
@@ -2452,32 +2626,40 @@
         <v>0.38921678379059532</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" ref="G36:L36" si="30">G32/G$7</f>
+        <f t="shared" ref="G36:L36" si="38">G32/G$7</f>
         <v>0.38207388950117399</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.44450281272791259</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.4479112521860063</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.45830355522597382</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.4439906133062726</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.4269816690382523</v>
       </c>
+      <c r="R36" s="10">
+        <f t="shared" ref="R36:T36" si="39">R32/R$7</f>
+        <v>0.4415547926964426</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" ref="S36" si="40">S32/S$7</f>
+        <v>0.41801517489261547</v>
+      </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36" si="31">T32/T$7</f>
-        <v>0.31042283389233788</v>
+        <f t="shared" si="39"/>
+        <v>0.43764504523128794</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -2495,81 +2677,105 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="25">
-        <f t="shared" ref="F38:L39" si="32">F35*F$64</f>
+        <f>F35*F$65</f>
         <v>45265.754936495192</v>
       </c>
       <c r="G38" s="25">
-        <f t="shared" si="32"/>
+        <f>G35*G$65</f>
         <v>56185.549523216258</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" si="32"/>
+        <f>H35*H$65</f>
         <v>48219.377843966278</v>
       </c>
       <c r="I38" s="25">
-        <f>I35*I$64</f>
+        <f>I35*I$65</f>
         <v>48342.547024836727</v>
       </c>
       <c r="J38" s="25">
-        <f t="shared" si="32"/>
+        <f>J35*J$65</f>
         <v>51137.769476002388</v>
       </c>
       <c r="K38" s="25">
-        <f>K35*K$64</f>
+        <f>K35*K$65</f>
         <v>56837.503545379594</v>
       </c>
       <c r="L38" s="25">
-        <f t="shared" si="32"/>
+        <f>L35*L$65</f>
         <v>61663.075613124631</v>
+      </c>
+      <c r="R38" s="25">
+        <f>R35*R$65</f>
+        <v>196878.18249924725</v>
+      </c>
+      <c r="S38" s="25">
+        <f>S35*S$65</f>
+        <v>197527.97758074672</v>
+      </c>
+      <c r="T38" s="25">
+        <f>T35*T$65</f>
+        <v>229749.55441580253</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="25">
-        <f t="shared" si="32"/>
+        <f>F36*F$65</f>
         <v>28845.245063504812</v>
       </c>
       <c r="G39" s="25">
-        <f t="shared" si="32"/>
+        <f>G36*G$65</f>
         <v>34740.45047678375</v>
       </c>
       <c r="H39" s="25">
-        <f t="shared" si="32"/>
+        <f>H36*H$65</f>
         <v>38584.622156033722</v>
       </c>
       <c r="I39" s="25">
-        <f t="shared" si="32"/>
+        <f>I36*I$65</f>
         <v>39220.452975163273</v>
       </c>
       <c r="J39" s="25">
-        <f t="shared" si="32"/>
+        <f>J36*J$65</f>
         <v>43265.230523997605</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" si="32"/>
+        <f>K36*K$65</f>
         <v>45386.496454620406</v>
       </c>
       <c r="L39" s="25">
-        <f t="shared" si="32"/>
+        <f>L36*L$65</f>
         <v>45947.924386875369</v>
+      </c>
+      <c r="R39" s="25">
+        <f t="shared" ref="R39" si="41">R36*R$65</f>
+        <v>155668.81750075275</v>
+      </c>
+      <c r="S39" s="25">
+        <f t="shared" ref="S39:T39" si="42">S36*S$65</f>
+        <v>141876.02241925325</v>
+      </c>
+      <c r="T39" s="25">
+        <f t="shared" si="42"/>
+        <v>178799.44558419747</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2580,28 +2786,40 @@
         <v>74111</v>
       </c>
       <c r="G40" s="25">
-        <f t="shared" ref="G40:L40" si="33">G38+G39</f>
+        <f t="shared" ref="G40:L40" si="43">G38+G39</f>
         <v>90926</v>
       </c>
       <c r="H40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>86804</v>
       </c>
       <c r="I40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>87563</v>
       </c>
       <c r="J40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>94403</v>
       </c>
       <c r="K40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>102224</v>
       </c>
       <c r="L40" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>107611</v>
+      </c>
+      <c r="R40" s="25">
+        <f t="shared" ref="R40" si="44">R38+R39</f>
+        <v>352547</v>
+      </c>
+      <c r="S40" s="25">
+        <f t="shared" ref="S40:T40" si="45">S38+S39</f>
+        <v>339404</v>
+      </c>
+      <c r="T40" s="25">
+        <f t="shared" si="45"/>
+        <v>408549</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -2619,7 +2837,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2630,11 +2848,11 @@
         <v>163154.24506350482</v>
       </c>
       <c r="G42" s="25">
-        <f t="shared" ref="G42:L42" si="34">G31-G38</f>
+        <f t="shared" ref="G42:L42" si="46">G31-G38</f>
         <v>175933.45047678374</v>
       </c>
       <c r="H42" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>169616.62215603373</v>
       </c>
       <c r="I42" s="25">
@@ -2642,21 +2860,33 @@
         <v>190638.45297516327</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>190652.23052399763</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>206160.49645462041</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>212170.92438687535</v>
+      </c>
+      <c r="R42" s="25">
+        <f>R31-R38</f>
+        <v>413319.81750075275</v>
+      </c>
+      <c r="S42" s="25">
+        <f>S31-S38</f>
+        <v>699828.02241925325</v>
+      </c>
+      <c r="T42" s="25">
+        <f>T31-T38</f>
+        <v>842026.44558419753</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -2667,33 +2897,45 @@
         <v>103968.75493649518</v>
       </c>
       <c r="G43" s="25">
-        <f t="shared" ref="G43:L43" si="35">G32-G39</f>
+        <f t="shared" ref="G43:L43" si="47">G32-G39</f>
         <v>108782.54952321625</v>
       </c>
       <c r="H43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>135725.37784396627</v>
       </c>
       <c r="I43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>154665.54702483673</v>
       </c>
       <c r="J43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>161301.7694760024</v>
       </c>
       <c r="K43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>164625.50354537959</v>
       </c>
       <c r="L43" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>158098.07561312465</v>
+      </c>
+      <c r="R43" s="25">
+        <f t="shared" ref="R43" si="48">R32-R39</f>
+        <v>326806.18249924725</v>
+      </c>
+      <c r="S43" s="25">
+        <f t="shared" ref="S43:T43" si="49">S32-S39</f>
+        <v>502656.97758074675</v>
+      </c>
+      <c r="T43" s="25">
+        <f t="shared" si="49"/>
+        <v>655295.55441580247</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -2704,11 +2946,11 @@
         <v>267123</v>
       </c>
       <c r="G44" s="25">
-        <f t="shared" ref="G44:L44" si="36">G42+G43</f>
+        <f t="shared" ref="G44:L44" si="50">G42+G43</f>
         <v>284716</v>
       </c>
       <c r="H44" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>305342</v>
       </c>
       <c r="I44" s="25">
@@ -2716,16 +2958,28 @@
         <v>345304</v>
       </c>
       <c r="J44" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>351954</v>
       </c>
       <c r="K44" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>370786</v>
       </c>
       <c r="L44" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>370269</v>
+      </c>
+      <c r="R44" s="25">
+        <f t="shared" ref="R44" si="51">R42+R43</f>
+        <v>740126</v>
+      </c>
+      <c r="S44" s="25">
+        <f t="shared" ref="S44:T44" si="52">S42+S43</f>
+        <v>1202485</v>
+      </c>
+      <c r="T44" s="25">
+        <f t="shared" si="52"/>
+        <v>1497322</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -2743,7 +2997,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
@@ -2762,7 +3016,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="24">
         <v>51897</v>
@@ -2798,13 +3052,19 @@
         <f>T47-L47-K47-J47</f>
         <v>173673</v>
       </c>
+      <c r="R47" s="4">
+        <v>346937</v>
+      </c>
+      <c r="S47" s="4">
+        <v>541883</v>
+      </c>
       <c r="T47" s="32">
         <v>620677</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="24">
         <v>41014</v>
@@ -2837,14 +3097,20 @@
         <v>93148</v>
       </c>
       <c r="M48" s="29">
-        <f t="shared" ref="M48" si="37">T48-L48-K48-J48</f>
-        <v>3826855</v>
+        <f t="shared" ref="M48" si="53">T48-L48-K48-J48</f>
+        <v>99855</v>
+      </c>
+      <c r="R48" s="4">
+        <v>247320</v>
+      </c>
+      <c r="S48" s="4">
+        <v>357546</v>
       </c>
       <c r="T48" s="32">
-        <v>4141496</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>414496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -2857,9 +3123,9 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2873,203 +3139,239 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="25">
-        <f t="shared" ref="B51:L51" si="38">B31-B47-B57+B$66*B35</f>
+        <f t="shared" ref="B51:L51" si="54">B31-B47-B57+B$67*B35</f>
         <v>66230</v>
       </c>
       <c r="C51" s="25" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>81762.707387875562</v>
       </c>
       <c r="E51" s="25" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>38296.047392698267</v>
       </c>
       <c r="G51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>47871.545977286878</v>
       </c>
       <c r="H51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>46879.754622003027</v>
       </c>
       <c r="I51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>46778.405838282895</v>
       </c>
       <c r="J51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>48061.702672972533</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>49162.979805923766</v>
       </c>
       <c r="L51" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>49474.697861387802</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R51" s="25"/>
+      <c r="S51" s="25">
+        <f t="shared" ref="S51:T51" si="55">S31-S47-S57+S$67*S35</f>
+        <v>179099.00684225649</v>
+      </c>
+      <c r="T51" s="25">
+        <f t="shared" si="55"/>
+        <v>191207.22000859451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="25">
-        <f t="shared" ref="B52:L52" si="39">B32-B48-B58+B$66*B36</f>
+        <f t="shared" ref="B52:K52" si="56">B32-B48-B58+B$67*B36</f>
         <v>70186</v>
       </c>
       <c r="C52" s="25" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>67577.292612124438</v>
       </c>
       <c r="E52" s="25" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>35814.952607301733</v>
       </c>
       <c r="G52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>43054.454022713115</v>
       </c>
       <c r="H52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>39924.245377996973</v>
       </c>
       <c r="I52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>40784.594161717112</v>
       </c>
       <c r="J52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>46341.297327027474</v>
       </c>
       <c r="K52" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="56"/>
         <v>53061.020194076234</v>
       </c>
       <c r="L52" s="25">
-        <f t="shared" si="39"/>
+        <f>L32-L48-L58+L$67*L36</f>
         <v>58136.302138612205</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R52" s="25"/>
+      <c r="S52" s="25">
+        <f>S32-S48-S58+S$67*S36</f>
+        <v>160304.99315774353</v>
+      </c>
+      <c r="T52" s="25">
+        <f>T32-T48-T58+T$67*T36</f>
+        <v>217341.77999140552</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B53" s="25">
-        <f t="shared" ref="B53:L53" si="40">B51-B$66*B35</f>
+        <f t="shared" ref="B53:K53" si="57">B51-B$67*B35</f>
         <v>66230</v>
       </c>
       <c r="C53" s="25" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>28738.786177367074</v>
       </c>
       <c r="E53" s="25" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>28537.56394732061</v>
       </c>
       <c r="G53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>33023.399468110583</v>
       </c>
       <c r="H53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>38625.06641913981</v>
       </c>
       <c r="I53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>39225.831768187461</v>
       </c>
       <c r="J53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>41736.313287346231</v>
       </c>
       <c r="K53" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="57"/>
         <v>42929.558571700385</v>
       </c>
       <c r="L53" s="25">
-        <f t="shared" si="40"/>
+        <f>L51-L$67*L35</f>
         <v>43443.679928015408</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R53" s="25"/>
+      <c r="S53" s="25">
+        <f>S51-S$67*S35</f>
+        <v>139206.27502044573</v>
+      </c>
+      <c r="T53" s="25">
+        <f>T51-T$67*T35</f>
+        <v>166429.2983465303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B54" s="25">
-        <f t="shared" ref="B54:L54" si="41">B52-B$66*B36</f>
+        <f t="shared" ref="B54:K54" si="58">B52-B$67*B36</f>
         <v>70186</v>
       </c>
       <c r="C54" s="25" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>26216.213822632926</v>
       </c>
       <c r="E54" s="25" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>29596.43605267939</v>
       </c>
       <c r="G54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>33873.600531889402</v>
       </c>
       <c r="H54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>33318.93358086019</v>
       </c>
       <c r="I54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>34657.168231812546</v>
       </c>
       <c r="J54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>40989.686712653776</v>
       </c>
       <c r="K54" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="58"/>
         <v>48083.441428299615</v>
       </c>
       <c r="L54" s="25">
-        <f t="shared" si="41"/>
+        <f>L52-L$67*L36</f>
         <v>53642.320071984599</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R54" s="38"/>
+      <c r="S54" s="38">
+        <f>S52-S$67*S36</f>
+        <v>131651.7249795543</v>
+      </c>
+      <c r="T54" s="38">
+        <f>T52-T$67*T36</f>
+        <v>198058.70165346973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -3082,9 +3384,9 @@
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -3098,105 +3400,123 @@
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="25">
+        <f t="shared" ref="B57:J57" si="59">B35*B71</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="25" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="25">
+        <f t="shared" si="59"/>
+        <v>39860.213822632926</v>
+      </c>
+      <c r="E57" s="25" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="25">
+        <f t="shared" si="59"/>
+        <v>48136.43605267939</v>
+      </c>
+      <c r="G57" s="25">
+        <f t="shared" si="59"/>
+        <v>55842.600531889409</v>
+      </c>
+      <c r="H57" s="25">
+        <f t="shared" si="59"/>
+        <v>53504.93358086019</v>
+      </c>
+      <c r="I57" s="25">
+        <f t="shared" si="59"/>
+        <v>58577.168231812539</v>
+      </c>
+      <c r="J57" s="25">
+        <f t="shared" si="59"/>
+        <v>60243.686712653769</v>
+      </c>
+      <c r="K57" s="25">
+        <f>K35*K$71</f>
+        <v>66426.441428299615</v>
+      </c>
+      <c r="L57" s="25">
+        <f>L35*L$71</f>
+        <v>76838.320071984592</v>
+      </c>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25">
+        <f>S35*S$71</f>
+        <v>216266.72497955427</v>
+      </c>
+      <c r="T57" s="25">
+        <f>T35*T$71</f>
+        <v>284669.7016534697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="25">
-        <f t="shared" ref="B57:J57" si="42">B35*B69</f>
+      <c r="B58" s="25">
+        <f t="shared" ref="B58:J58" si="60">B36*B$71</f>
         <v>0</v>
       </c>
-      <c r="C57" s="25" t="e">
-        <f t="shared" si="42"/>
+      <c r="C58" s="25" t="e">
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="25">
-        <f t="shared" si="42"/>
-        <v>39860.213822632926</v>
-      </c>
-      <c r="E57" s="25" t="e">
-        <f t="shared" si="42"/>
+      <c r="D58" s="25">
+        <f t="shared" si="60"/>
+        <v>31092.786177367074</v>
+      </c>
+      <c r="E58" s="25" t="e">
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="25">
-        <f t="shared" si="42"/>
-        <v>48136.43605267939</v>
-      </c>
-      <c r="G57" s="25">
-        <f t="shared" si="42"/>
-        <v>55842.600531889409</v>
-      </c>
-      <c r="H57" s="25">
-        <f t="shared" si="42"/>
-        <v>53504.93358086019</v>
-      </c>
-      <c r="I57" s="25">
-        <f t="shared" si="42"/>
-        <v>58577.168231812539</v>
-      </c>
-      <c r="J57" s="25">
-        <f t="shared" si="42"/>
-        <v>60243.686712653769</v>
-      </c>
-      <c r="K57" s="25">
-        <f>K35*K$69</f>
-        <v>66426.441428299615</v>
-      </c>
-      <c r="L57" s="25">
-        <f>L35*L$69</f>
-        <v>76838.320071984592</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="25">
-        <f t="shared" ref="B58:J58" si="43">B36*B$69</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="25" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="25">
-        <f t="shared" si="43"/>
-        <v>31092.786177367074</v>
-      </c>
-      <c r="E58" s="25" t="e">
-        <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F58" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>30674.563947320607</v>
       </c>
       <c r="G58" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>34528.399468110598</v>
       </c>
       <c r="H58" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>42814.06641913981</v>
       </c>
       <c r="I58" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>47523.831768187454</v>
       </c>
       <c r="J58" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>50969.313287346224</v>
       </c>
       <c r="K58" s="25">
-        <f>K36*K$69</f>
+        <f>K36*K$71</f>
         <v>53043.558571700385</v>
       </c>
       <c r="L58" s="25">
-        <f>L36*L$69</f>
+        <f>L36*L$71</f>
         <v>57255.679928015401</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R58" s="25"/>
+      <c r="S58" s="25">
+        <f>S36*S$71</f>
+        <v>155335.2750204457</v>
+      </c>
+      <c r="T58" s="25">
+        <f>T36*T$71</f>
+        <v>221540.29834653027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -3209,7 +3529,7 @@
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -3222,9 +3542,9 @@
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3239,9 +3559,9 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="63" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12">
@@ -3267,1033 +3587,1224 @@
         <v>432867</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" ref="J63:L63" si="44">J33</f>
+        <f t="shared" ref="J63:L63" si="61">J33</f>
         <v>446357</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="61"/>
         <v>473010</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="61"/>
         <v>477880</v>
       </c>
       <c r="M63" s="12"/>
-    </row>
-    <row r="64" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14">
+      <c r="R63" s="12">
+        <f t="shared" ref="R63:S63" si="62">R33</f>
+        <v>1092673</v>
+      </c>
+      <c r="S63" s="12">
+        <f t="shared" si="62"/>
+        <v>1541889</v>
+      </c>
+      <c r="T63" s="12">
+        <f>T33</f>
+        <v>1905871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+    </row>
+    <row r="65" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="31">
         <v>68410</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="31">
         <v>149340</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="31">
         <v>70503</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="31">
         <v>74111</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="31">
         <v>90926</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="31">
         <v>86804</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="31">
         <v>87563</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="31">
         <v>94403</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="31">
         <v>102224</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L65" s="31">
         <v>107611</v>
       </c>
-      <c r="M64" s="14"/>
-    </row>
-    <row r="65" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="14">
-        <f>B64-B66</f>
+      <c r="M65" s="14"/>
+      <c r="R65" s="33">
+        <v>352547</v>
+      </c>
+      <c r="S65" s="33">
+        <v>339404</v>
+      </c>
+      <c r="T65" s="33">
+        <v>408549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="14">
+        <f>B65-B67</f>
         <v>0</v>
       </c>
-      <c r="C65" s="14">
-        <f t="shared" ref="C65:E65" si="45">C64-C66</f>
+      <c r="C66" s="14">
+        <f t="shared" ref="C66:E66" si="63">C65-C67</f>
         <v>68410</v>
       </c>
-      <c r="D65" s="14">
-        <f t="shared" si="45"/>
+      <c r="D66" s="14">
+        <f t="shared" si="63"/>
         <v>54955</v>
       </c>
-      <c r="E65" s="14">
-        <f t="shared" si="45"/>
+      <c r="E66" s="14">
+        <f t="shared" si="63"/>
         <v>70503</v>
       </c>
-      <c r="F65" s="14">
-        <f>F64-F66</f>
+      <c r="F66" s="14">
+        <f>F65-F67</f>
         <v>58134</v>
       </c>
-      <c r="G65" s="14">
-        <f t="shared" ref="G65:I65" si="46">G64-G66</f>
+      <c r="G66" s="14">
+        <f t="shared" ref="G66:I66" si="64">G65-G67</f>
         <v>66897</v>
       </c>
-      <c r="H65" s="14">
-        <f t="shared" si="46"/>
+      <c r="H66" s="14">
+        <f t="shared" si="64"/>
         <v>71944</v>
       </c>
-      <c r="I65" s="14">
-        <f t="shared" si="46"/>
+      <c r="I66" s="14">
+        <f t="shared" si="64"/>
         <v>73883</v>
       </c>
-      <c r="J65" s="14">
-        <f>J64-J66</f>
+      <c r="J66" s="14">
+        <f>J65-J67</f>
         <v>82726</v>
       </c>
-      <c r="K65" s="14">
-        <f>K64-K66</f>
+      <c r="K66" s="14">
+        <f>K65-K67</f>
         <v>91013</v>
       </c>
-      <c r="L65" s="14">
-        <f>L64-L66</f>
+      <c r="L66" s="14">
+        <f>L65-L67</f>
         <v>97086</v>
       </c>
-      <c r="M65" s="14"/>
-    </row>
-    <row r="66" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14">
+      <c r="M66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14">
+        <f>S65-S67</f>
+        <v>270858</v>
+      </c>
+      <c r="T66" s="14">
+        <f>T65-T67</f>
+        <v>364488</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="31">
         <v>94385</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14">
+      <c r="E67" s="14"/>
+      <c r="F67" s="31">
         <v>15977</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="31">
         <v>24029</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="31">
         <v>14860</v>
       </c>
-      <c r="I66" s="14">
-        <f>68546-H66-G66-F66</f>
+      <c r="I67" s="31">
+        <f>68546-H67-G67-F67</f>
         <v>13680</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="31">
         <v>11677</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="31">
         <v>11211</v>
       </c>
-      <c r="L66" s="31">
+      <c r="L67" s="31">
         <v>10525</v>
       </c>
-      <c r="M66" s="14"/>
-    </row>
-    <row r="67" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14">
-        <f t="shared" ref="C67:L67" si="47">(C63-C64)</f>
-        <v>183479</v>
-      </c>
-      <c r="D67" s="14">
-        <f t="shared" si="47"/>
-        <v>140026</v>
-      </c>
-      <c r="E67" s="14">
-        <f t="shared" si="47"/>
-        <v>251588</v>
-      </c>
-      <c r="F67" s="14">
-        <f t="shared" si="47"/>
-        <v>267123</v>
-      </c>
-      <c r="G67" s="14">
-        <f t="shared" si="47"/>
-        <v>284716</v>
-      </c>
-      <c r="H67" s="14">
-        <f t="shared" si="47"/>
-        <v>305342</v>
-      </c>
-      <c r="I67" s="14">
-        <f t="shared" si="47"/>
-        <v>345304</v>
-      </c>
-      <c r="J67" s="14">
-        <f t="shared" si="47"/>
-        <v>351954</v>
-      </c>
-      <c r="K67" s="14">
-        <f t="shared" si="47"/>
-        <v>370786</v>
-      </c>
-      <c r="L67" s="14">
-        <f t="shared" si="47"/>
-        <v>370269</v>
-      </c>
       <c r="M67" s="14"/>
-    </row>
-    <row r="68" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>12</v>
+      <c r="S67" s="33">
+        <v>68546</v>
+      </c>
+      <c r="T67" s="33">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14">
+        <f t="shared" ref="C68:L68" si="65">(C63-C65)</f>
+        <v>183479</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="65"/>
+        <v>140026</v>
+      </c>
+      <c r="E68" s="14">
+        <f t="shared" si="65"/>
+        <v>251588</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="65"/>
+        <v>267123</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="65"/>
+        <v>284716</v>
+      </c>
+      <c r="H68" s="14">
+        <f t="shared" si="65"/>
+        <v>305342</v>
+      </c>
+      <c r="I68" s="14">
+        <f t="shared" si="65"/>
+        <v>345304</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="65"/>
+        <v>351954</v>
+      </c>
+      <c r="K68" s="14">
+        <f t="shared" si="65"/>
+        <v>370786</v>
+      </c>
+      <c r="L68" s="14">
+        <f t="shared" si="65"/>
+        <v>370269</v>
+      </c>
+      <c r="M68" s="14"/>
+      <c r="R68" s="14">
+        <f>(R63-R65)</f>
+        <v>740126</v>
+      </c>
+      <c r="S68" s="14">
+        <f t="shared" ref="S68:T68" si="66">(S63-S65)</f>
+        <v>1202485</v>
+      </c>
+      <c r="T68" s="14">
+        <f t="shared" si="66"/>
+        <v>1497322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+    </row>
+    <row r="70" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="31">
         <v>102518</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D70" s="31">
         <v>334911</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E70" s="31">
         <v>147619</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F70" s="31">
         <v>136097</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G70" s="31">
         <v>162379</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H70" s="31">
         <v>153443</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I70" s="31">
         <v>162593</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J70" s="31">
         <v>160485</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K70" s="31">
         <v>168875</v>
       </c>
-      <c r="L68" s="31">
+      <c r="L70" s="31">
         <v>182918</v>
       </c>
-      <c r="M68" s="14"/>
-      <c r="S68" s="33">
-        <f>SUM(F68:I68)</f>
+      <c r="M70" s="14"/>
+      <c r="R70" s="33">
+        <v>683701</v>
+      </c>
+      <c r="S70" s="33">
+        <f>SUM(F70:I70)</f>
         <v>614512</v>
       </c>
-      <c r="T68" s="33">
+      <c r="T70" s="33">
         <v>702511</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="14">
-        <f>B68-B70</f>
+    <row r="71" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="14">
+        <f>B70-B72</f>
         <v>0</v>
       </c>
-      <c r="C69" s="14">
-        <f t="shared" ref="C69" si="48">C68-C70</f>
+      <c r="C71" s="14">
+        <f t="shared" ref="C71" si="67">C70-C72</f>
         <v>102518</v>
       </c>
-      <c r="D69" s="14">
-        <f t="shared" ref="D69" si="49">D68-D70</f>
+      <c r="D71" s="14">
+        <f t="shared" ref="D71" si="68">D70-D72</f>
         <v>70953</v>
       </c>
-      <c r="E69" s="14">
-        <f t="shared" ref="E69" si="50">E68-E70</f>
+      <c r="E71" s="14">
+        <f t="shared" ref="E71" si="69">E70-E72</f>
         <v>147619</v>
       </c>
-      <c r="F69" s="14">
-        <f>F68-F70</f>
+      <c r="F71" s="14">
+        <f>F70-F72</f>
         <v>78811</v>
       </c>
-      <c r="G69" s="14">
-        <f t="shared" ref="G69:I69" si="51">G68-G70</f>
+      <c r="G71" s="14">
+        <f t="shared" ref="G71:I71" si="70">G70-G72</f>
         <v>90371</v>
       </c>
-      <c r="H69" s="14">
-        <f t="shared" si="51"/>
+      <c r="H71" s="14">
+        <f t="shared" si="70"/>
         <v>96319</v>
       </c>
-      <c r="I69" s="14">
-        <f t="shared" si="51"/>
+      <c r="I71" s="14">
+        <f t="shared" si="70"/>
         <v>106101</v>
       </c>
-      <c r="J69" s="14">
-        <f>J68-J70</f>
+      <c r="J71" s="14">
+        <f>J70-J72</f>
         <v>111213</v>
       </c>
-      <c r="K69" s="14">
-        <f>K68-K70</f>
+      <c r="K71" s="14">
+        <f>K70-K72</f>
         <v>119470</v>
       </c>
-      <c r="L69" s="14">
-        <f>L68-L70</f>
+      <c r="L71" s="14">
+        <f>L70-L72</f>
         <v>134094</v>
       </c>
-      <c r="M69" s="14"/>
-    </row>
-    <row r="70" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14">
+      <c r="M71" s="14"/>
+      <c r="S71" s="14">
+        <f>S70-S72</f>
+        <v>371602</v>
+      </c>
+      <c r="T71" s="14">
+        <f>T70-T72</f>
+        <v>506210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31">
         <v>263958</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14">
+      <c r="E72" s="31"/>
+      <c r="F72" s="31">
         <v>57286</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G72" s="31">
         <v>72008</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H72" s="31">
         <v>57124</v>
       </c>
-      <c r="I70" s="14">
-        <f>242910-H70-G70-F70</f>
+      <c r="I72" s="31">
+        <f>242910-H72-G72-F72</f>
         <v>56492</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J72" s="31">
         <v>49272</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K72" s="31">
         <v>49405</v>
       </c>
-      <c r="L70" s="31">
+      <c r="L72" s="31">
         <v>48824</v>
       </c>
-      <c r="M70" s="14"/>
-    </row>
-    <row r="71" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14">
+      <c r="M72" s="14"/>
+      <c r="S72" s="33">
+        <v>242910</v>
+      </c>
+      <c r="T72" s="33">
+        <v>196301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="14"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+    </row>
+    <row r="74" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="31">
         <v>86815</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D74" s="31">
         <v>313915</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E74" s="31">
         <v>94130</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F74" s="31">
         <v>98471</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G74" s="31">
         <v>110524</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H74" s="31">
         <v>94316</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I74" s="31">
         <v>84176</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J74" s="31">
         <v>88601</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K74" s="31">
         <v>88171</v>
       </c>
-      <c r="L71" s="31">
+      <c r="L74" s="31">
         <v>100863</v>
       </c>
-      <c r="M71" s="14"/>
-      <c r="S71" s="33">
-        <f>SUM(F71:I71)</f>
-        <v>387487</v>
-      </c>
-      <c r="T71" s="33">
-        <v>359679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="14">
-        <f>B71-B73</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="14">
-        <f t="shared" ref="C72" si="52">C71-C73</f>
-        <v>86815</v>
-      </c>
-      <c r="D72" s="14">
-        <f t="shared" ref="D72" si="53">D71-D73</f>
-        <v>57146</v>
-      </c>
-      <c r="E72" s="14">
-        <f t="shared" ref="E72" si="54">E71-E73</f>
-        <v>94130</v>
-      </c>
-      <c r="F72" s="14">
-        <f>F71-F73</f>
-        <v>60597</v>
-      </c>
-      <c r="G72" s="14">
-        <f t="shared" ref="G72:I72" si="55">G71-G73</f>
-        <v>59894</v>
-      </c>
-      <c r="H72" s="14">
-        <f t="shared" si="55"/>
-        <v>59844</v>
-      </c>
-      <c r="I72" s="14">
-        <f t="shared" si="55"/>
-        <v>56854</v>
-      </c>
-      <c r="J72" s="14">
-        <f>J71-J73</f>
-        <v>61696</v>
-      </c>
-      <c r="K72" s="14">
-        <v>63193</v>
-      </c>
-      <c r="L72" s="31">
-        <v>75750</v>
-      </c>
-      <c r="M72" s="14"/>
-    </row>
-    <row r="73" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14">
-        <v>256769</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14">
-        <v>37874</v>
-      </c>
-      <c r="G73" s="14">
-        <v>50630</v>
-      </c>
-      <c r="H73" s="14">
-        <v>34472</v>
-      </c>
-      <c r="I73" s="14">
-        <f>150298-H73-G73-F73</f>
-        <v>27322</v>
-      </c>
-      <c r="J73" s="14">
-        <v>26905</v>
-      </c>
-      <c r="K73" s="14">
-        <f>K71-K72</f>
-        <v>24978</v>
-      </c>
-      <c r="L73" s="31">
-        <v>25113</v>
-      </c>
-      <c r="M73" s="14"/>
-    </row>
-    <row r="74" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14">
-        <v>93291</v>
-      </c>
-      <c r="D74" s="14">
-        <v>338977</v>
-      </c>
-      <c r="E74" s="14">
-        <v>166411</v>
-      </c>
-      <c r="F74" s="14">
-        <v>146569</v>
-      </c>
-      <c r="G74" s="14">
-        <v>157961</v>
-      </c>
-      <c r="H74" s="14">
-        <v>149524</v>
-      </c>
-      <c r="I74" s="14">
-        <v>157478</v>
-      </c>
-      <c r="J74" s="14">
-        <v>142307</v>
-      </c>
-      <c r="K74" s="14">
-        <v>155485</v>
-      </c>
-      <c r="L74" s="31">
-        <v>148679</v>
-      </c>
       <c r="M74" s="14"/>
+      <c r="R74" s="33">
+        <v>560660</v>
+      </c>
       <c r="S74" s="33">
         <f>SUM(F74:I74)</f>
-        <v>611532</v>
+        <v>387487</v>
       </c>
       <c r="T74" s="33">
-        <v>596333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>359679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" s="14">
         <f>B74-B76</f>
         <v>0</v>
       </c>
-      <c r="C75" s="14">
-        <f t="shared" ref="C75:E75" si="56">C74-C76</f>
+      <c r="C75" s="31">
+        <f t="shared" ref="C75" si="71">C74-C76</f>
+        <v>86815</v>
+      </c>
+      <c r="D75" s="31">
+        <f t="shared" ref="D75" si="72">D74-D76</f>
+        <v>57146</v>
+      </c>
+      <c r="E75" s="31">
+        <f t="shared" ref="E75" si="73">E74-E76</f>
+        <v>94130</v>
+      </c>
+      <c r="F75" s="31">
+        <f>F74-F76</f>
+        <v>60597</v>
+      </c>
+      <c r="G75" s="31">
+        <f t="shared" ref="G75:I75" si="74">G74-G76</f>
+        <v>59894</v>
+      </c>
+      <c r="H75" s="31">
+        <f t="shared" si="74"/>
+        <v>59844</v>
+      </c>
+      <c r="I75" s="31">
+        <f t="shared" si="74"/>
+        <v>56854</v>
+      </c>
+      <c r="J75" s="31">
+        <f>J74-J76</f>
+        <v>61696</v>
+      </c>
+      <c r="K75" s="31">
+        <v>63193</v>
+      </c>
+      <c r="L75" s="31">
+        <v>75750</v>
+      </c>
+      <c r="M75" s="14"/>
+      <c r="S75" s="14">
+        <f>S74-S76</f>
+        <v>237189</v>
+      </c>
+      <c r="T75" s="14">
+        <f>T74-T76</f>
+        <v>265808</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31">
+        <v>256769</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31">
+        <v>37874</v>
+      </c>
+      <c r="G76" s="31">
+        <v>50630</v>
+      </c>
+      <c r="H76" s="31">
+        <v>34472</v>
+      </c>
+      <c r="I76" s="31">
+        <f>150298-H76-G76-F76</f>
+        <v>27322</v>
+      </c>
+      <c r="J76" s="31">
+        <v>26905</v>
+      </c>
+      <c r="K76" s="31">
+        <f>K74-K75</f>
+        <v>24978</v>
+      </c>
+      <c r="L76" s="31">
+        <v>25113</v>
+      </c>
+      <c r="M76" s="14"/>
+      <c r="S76" s="33">
+        <v>150298</v>
+      </c>
+      <c r="T76" s="33">
+        <v>93871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="14"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+    </row>
+    <row r="78" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="31">
         <v>93291</v>
       </c>
-      <c r="D75" s="14">
-        <f t="shared" si="56"/>
+      <c r="D78" s="31">
+        <v>338977</v>
+      </c>
+      <c r="E78" s="31">
+        <v>166411</v>
+      </c>
+      <c r="F78" s="31">
+        <v>146569</v>
+      </c>
+      <c r="G78" s="31">
+        <v>157961</v>
+      </c>
+      <c r="H78" s="31">
+        <v>149524</v>
+      </c>
+      <c r="I78" s="31">
+        <v>157478</v>
+      </c>
+      <c r="J78" s="31">
+        <v>142307</v>
+      </c>
+      <c r="K78" s="31">
+        <v>155485</v>
+      </c>
+      <c r="L78" s="31">
+        <v>148679</v>
+      </c>
+      <c r="M78" s="14"/>
+      <c r="R78" s="33">
+        <v>669444</v>
+      </c>
+      <c r="S78" s="33">
+        <f>SUM(F78:I78)</f>
+        <v>611532</v>
+      </c>
+      <c r="T78" s="33">
+        <v>596333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="14">
+        <f>B78-B80</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="14">
+        <f t="shared" ref="C79:E79" si="75">C78-C80</f>
+        <v>93291</v>
+      </c>
+      <c r="D79" s="14">
+        <f t="shared" si="75"/>
         <v>107130</v>
       </c>
-      <c r="E75" s="14">
-        <f t="shared" si="56"/>
+      <c r="E79" s="14">
+        <f t="shared" si="75"/>
         <v>166411</v>
       </c>
-      <c r="F75" s="14">
-        <f>F74-F76</f>
+      <c r="F79" s="14">
+        <f>F78-F80</f>
         <v>63975</v>
       </c>
-      <c r="G75" s="14">
-        <f t="shared" ref="G75:I75" si="57">G74-G76</f>
+      <c r="G79" s="14">
+        <f t="shared" ref="G79:I79" si="76">G78-G80</f>
         <v>71886</v>
       </c>
-      <c r="H75" s="14">
-        <f t="shared" si="57"/>
+      <c r="H79" s="14">
+        <f t="shared" si="76"/>
         <v>71145</v>
       </c>
-      <c r="I75" s="14">
-        <f t="shared" si="57"/>
+      <c r="I79" s="14">
+        <f t="shared" si="76"/>
         <v>88065</v>
       </c>
-      <c r="J75" s="14">
-        <f>J74-J76</f>
+      <c r="J79" s="14">
+        <f>J78-J80</f>
         <v>80838</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K79" s="14">
         <v>95310</v>
       </c>
-      <c r="L75" s="14">
-        <f>L74-L76</f>
+      <c r="L79" s="14">
+        <f>L78-L80</f>
         <v>92833</v>
       </c>
-      <c r="M75" s="14"/>
-    </row>
-    <row r="76" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14">
-        <v>231847</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14">
-        <v>82594</v>
-      </c>
-      <c r="G76" s="14">
-        <v>86075</v>
-      </c>
-      <c r="H76" s="14">
-        <v>78379</v>
-      </c>
-      <c r="I76" s="14">
-        <f>316461-H76-G76-F76</f>
-        <v>69413</v>
-      </c>
-      <c r="J76" s="14">
-        <v>61469</v>
-      </c>
-      <c r="K76" s="14">
-        <f>K74-K75</f>
-        <v>60175</v>
-      </c>
-      <c r="L76" s="31">
-        <v>55846</v>
-      </c>
-      <c r="M76" s="14"/>
-    </row>
-    <row r="77" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14">
-        <f>C68+C71+C74</f>
-        <v>282624</v>
-      </c>
-      <c r="D77" s="14">
-        <f t="shared" ref="D77:L77" si="58">D68+D71+D74</f>
-        <v>987803</v>
-      </c>
-      <c r="E77" s="14">
-        <f t="shared" si="58"/>
-        <v>408160</v>
-      </c>
-      <c r="F77" s="14">
-        <f t="shared" si="58"/>
-        <v>381137</v>
-      </c>
-      <c r="G77" s="14">
-        <f t="shared" si="58"/>
-        <v>430864</v>
-      </c>
-      <c r="H77" s="14">
-        <f t="shared" si="58"/>
-        <v>397283</v>
-      </c>
-      <c r="I77" s="14">
-        <f t="shared" si="58"/>
-        <v>404247</v>
-      </c>
-      <c r="J77" s="14">
-        <f t="shared" si="58"/>
-        <v>391393</v>
-      </c>
-      <c r="K77" s="14">
-        <f t="shared" si="58"/>
-        <v>412531</v>
-      </c>
-      <c r="L77" s="14">
-        <f t="shared" si="58"/>
-        <v>432460</v>
-      </c>
-      <c r="M77" s="14"/>
-    </row>
-    <row r="78" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12">
-        <f>C67-C77</f>
-        <v>-99145</v>
-      </c>
-      <c r="D78" s="12">
-        <f t="shared" ref="D78:L78" si="59">D67-D77</f>
-        <v>-847777</v>
-      </c>
-      <c r="E78" s="12">
-        <f t="shared" si="59"/>
-        <v>-156572</v>
-      </c>
-      <c r="F78" s="12">
-        <f t="shared" si="59"/>
-        <v>-114014</v>
-      </c>
-      <c r="G78" s="12">
-        <f t="shared" si="59"/>
-        <v>-146148</v>
-      </c>
-      <c r="H78" s="12">
-        <f t="shared" si="59"/>
-        <v>-91941</v>
-      </c>
-      <c r="I78" s="12">
-        <f t="shared" si="59"/>
-        <v>-58943</v>
-      </c>
-      <c r="J78" s="12">
-        <f t="shared" si="59"/>
-        <v>-39439</v>
-      </c>
-      <c r="K78" s="12">
-        <f>K67-K77</f>
-        <v>-41745</v>
-      </c>
-      <c r="L78" s="12">
-        <f t="shared" si="59"/>
-        <v>-62191</v>
-      </c>
-      <c r="M78" s="12"/>
-    </row>
-    <row r="79" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14">
-        <v>494</v>
-      </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14">
-        <v>376</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14">
-        <f>1607-H79-G79-F79</f>
-        <v>1231</v>
-      </c>
-      <c r="J79" s="14">
-        <v>547</v>
-      </c>
-      <c r="K79" s="14">
-        <v>1472</v>
-      </c>
-      <c r="L79" s="31">
-        <v>5540</v>
-      </c>
       <c r="M79" s="14"/>
-    </row>
-    <row r="80" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S79" s="14">
+        <f>S78-S80</f>
+        <v>295071</v>
+      </c>
+      <c r="T79" s="14">
+        <f>T78-T80</f>
+        <v>365768</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14">
-        <v>-2085</v>
+        <v>231847</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14">
+        <v>82594</v>
+      </c>
+      <c r="G80" s="14">
+        <v>86075</v>
+      </c>
+      <c r="H80" s="14">
+        <v>78379</v>
+      </c>
+      <c r="I80" s="14">
+        <f>316461-H80-G80-F80</f>
+        <v>69413</v>
+      </c>
+      <c r="J80" s="14">
+        <v>61469</v>
+      </c>
+      <c r="K80" s="14">
+        <f>K78-K79</f>
+        <v>60175</v>
+      </c>
+      <c r="L80" s="31">
+        <v>55846</v>
+      </c>
+      <c r="M80" s="14"/>
+      <c r="S80" s="33">
+        <v>316461</v>
+      </c>
+      <c r="T80" s="33">
+        <v>230565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14">
+        <f>C70+C74+C78</f>
+        <v>282624</v>
+      </c>
+      <c r="D81" s="14">
+        <f t="shared" ref="D81:L81" si="77">D70+D74+D78</f>
+        <v>987803</v>
+      </c>
+      <c r="E81" s="14">
+        <f t="shared" si="77"/>
+        <v>408160</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="77"/>
+        <v>381137</v>
+      </c>
+      <c r="G81" s="14">
+        <f t="shared" si="77"/>
+        <v>430864</v>
+      </c>
+      <c r="H81" s="14">
+        <f t="shared" si="77"/>
+        <v>397283</v>
+      </c>
+      <c r="I81" s="14">
+        <f t="shared" si="77"/>
+        <v>404247</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="77"/>
+        <v>391393</v>
+      </c>
+      <c r="K81" s="14">
+        <f t="shared" si="77"/>
+        <v>412531</v>
+      </c>
+      <c r="L81" s="14">
+        <f t="shared" si="77"/>
+        <v>432460</v>
+      </c>
+      <c r="M81" s="14"/>
+      <c r="R81" s="14">
+        <f>R70+R74+R78</f>
+        <v>1913805</v>
+      </c>
+      <c r="S81" s="14">
+        <f t="shared" ref="S81:T81" si="78">S70+S74+S78</f>
+        <v>1613531</v>
+      </c>
+      <c r="T81" s="14">
+        <f t="shared" si="78"/>
+        <v>1658523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36">
+        <f>C68-C81</f>
+        <v>-99145</v>
+      </c>
+      <c r="D82" s="36">
+        <f t="shared" ref="D82:L82" si="79">D68-D81</f>
+        <v>-847777</v>
+      </c>
+      <c r="E82" s="36">
+        <f t="shared" si="79"/>
+        <v>-156572</v>
+      </c>
+      <c r="F82" s="36">
+        <f t="shared" si="79"/>
+        <v>-114014</v>
+      </c>
+      <c r="G82" s="36">
+        <f t="shared" si="79"/>
+        <v>-146148</v>
+      </c>
+      <c r="H82" s="36">
+        <f t="shared" si="79"/>
+        <v>-91941</v>
+      </c>
+      <c r="I82" s="36">
+        <f t="shared" si="79"/>
+        <v>-58943</v>
+      </c>
+      <c r="J82" s="36">
+        <f t="shared" si="79"/>
+        <v>-39439</v>
+      </c>
+      <c r="K82" s="36">
+        <f>K68-K81</f>
+        <v>-41745</v>
+      </c>
+      <c r="L82" s="36">
+        <f t="shared" si="79"/>
+        <v>-62191</v>
+      </c>
+      <c r="M82" s="36"/>
+      <c r="R82" s="36">
+        <f>R68-R81</f>
+        <v>-1173679</v>
+      </c>
+      <c r="S82" s="36">
+        <f>S68-S81</f>
+        <v>-411046</v>
+      </c>
+      <c r="T82" s="36">
+        <f>T68-T81</f>
+        <v>-161201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+    </row>
+    <row r="84" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14">
+        <v>494</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14">
+        <v>376</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14">
+        <f>1607-H84-G84-F84</f>
+        <v>1231</v>
+      </c>
+      <c r="J84" s="14">
+        <v>547</v>
+      </c>
+      <c r="K84" s="14">
+        <v>1472</v>
+      </c>
+      <c r="L84" s="31">
+        <v>5540</v>
+      </c>
+      <c r="M84" s="14"/>
+      <c r="R84" s="33">
+        <v>4680</v>
+      </c>
+      <c r="S84" s="33">
+        <v>1607</v>
+      </c>
+      <c r="T84" s="33">
+        <v>20309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14">
+        <v>-2085</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14">
         <v>-1840</v>
       </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14">
-        <f>-3640-H80-G80-F80</f>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14">
+        <f>-3640-H85-G85-F85</f>
         <v>-1800</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J85" s="14">
         <v>-594</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K85" s="14">
         <v>-670</v>
       </c>
-      <c r="L80" s="31">
+      <c r="L85" s="31">
         <v>-1082</v>
       </c>
-      <c r="M80" s="14"/>
-      <c r="AE80" s="13">
+      <c r="M85" s="14"/>
+      <c r="R85" s="33">
+        <v>-141349</v>
+      </c>
+      <c r="S85" s="33">
+        <v>-3640</v>
+      </c>
+      <c r="T85" s="33">
+        <v>-4058</v>
+      </c>
+      <c r="AE85" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14">
+    <row r="86" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14">
         <f>-9201-3293</f>
         <v>-12494</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14">
+      <c r="E86" s="14"/>
+      <c r="F86" s="14">
         <v>-4894</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14">
-        <f>-75415-H81-G81-F81</f>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14">
+        <f>-75415-H86-G86-F86</f>
         <v>-70521</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J86" s="14">
         <v>-59870</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K86" s="14">
         <v>-135798</v>
       </c>
-      <c r="L81" s="31">
+      <c r="L86" s="31">
         <v>-65046</v>
       </c>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14">
-        <f>C78+C79+C80+C81</f>
+      <c r="M86" s="14"/>
+      <c r="R86" s="33">
+        <v>4111</v>
+      </c>
+      <c r="S86" s="33">
+        <v>-75415</v>
+      </c>
+      <c r="T86" s="33">
+        <v>-216077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="14"/>
+    </row>
+    <row r="88" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14">
+        <f>C82+C84+C85+C86</f>
         <v>-99145</v>
       </c>
-      <c r="D82" s="14">
-        <f t="shared" ref="D82:K82" si="60">D78+D79+D80+D81</f>
+      <c r="D88" s="14">
+        <f t="shared" ref="D88:K88" si="80">D82+D84+D85+D86</f>
         <v>-861862</v>
       </c>
-      <c r="E82" s="14">
-        <f t="shared" si="60"/>
+      <c r="E88" s="14">
+        <f t="shared" si="80"/>
         <v>-156572</v>
       </c>
-      <c r="F82" s="14">
-        <f t="shared" si="60"/>
+      <c r="F88" s="14">
+        <f t="shared" si="80"/>
         <v>-120372</v>
       </c>
-      <c r="G82" s="14">
-        <f t="shared" si="60"/>
+      <c r="G88" s="14">
+        <f t="shared" si="80"/>
         <v>-146148</v>
       </c>
-      <c r="H82" s="14">
-        <f t="shared" si="60"/>
+      <c r="H88" s="14">
+        <f t="shared" si="80"/>
         <v>-91941</v>
       </c>
-      <c r="I82" s="14">
-        <f t="shared" si="60"/>
+      <c r="I88" s="14">
+        <f t="shared" si="80"/>
         <v>-130033</v>
       </c>
-      <c r="J82" s="14">
-        <f t="shared" si="60"/>
+      <c r="J88" s="14">
+        <f t="shared" si="80"/>
         <v>-99356</v>
       </c>
-      <c r="K82" s="14">
-        <f t="shared" si="60"/>
+      <c r="K88" s="14">
+        <f t="shared" si="80"/>
         <v>-176741</v>
       </c>
-      <c r="L82" s="14">
-        <f>L78+L79+L80+L81</f>
+      <c r="L88" s="14">
+        <f>L82+L84+L85+L86</f>
         <v>-122779</v>
       </c>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14">
+      <c r="M88" s="14"/>
+      <c r="R88" s="14">
+        <f>R82+R84+R85+R86</f>
+        <v>-1306237</v>
+      </c>
+      <c r="S88" s="14">
+        <f>S82+S84+S85+S86</f>
+        <v>-488494</v>
+      </c>
+      <c r="T88" s="14">
+        <f>T82+T84+T85+T86</f>
+        <v>-361027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="31">
         <f>(0.943)*1000</f>
         <v>943</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D89" s="31">
         <v>-8543</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E89" s="31">
         <v>-7593</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F89" s="31">
         <v>3102</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G89" s="31">
         <v>-5661</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H89" s="31">
         <v>1438</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I89" s="31">
         <v>33006</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J89" s="31">
         <v>2023.0000000000002</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K89" s="31">
         <v>2588</v>
       </c>
-      <c r="L83" s="31">
+      <c r="L89" s="31">
         <v>1096</v>
       </c>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12">
-        <f>(C82-C83)</f>
+      <c r="M89" s="14"/>
+      <c r="R89" s="33">
+        <v>-12636</v>
+      </c>
+      <c r="S89" s="33">
+        <v>31885</v>
+      </c>
+      <c r="T89" s="33">
+        <v>10067</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36">
+        <f>(C88-C89)</f>
         <v>-100088</v>
       </c>
-      <c r="D84" s="12">
-        <f t="shared" ref="D84:L84" si="61">(D82-D83)</f>
+      <c r="D90" s="36">
+        <f t="shared" ref="D90:L90" si="81">(D88-D89)</f>
         <v>-853319</v>
       </c>
-      <c r="E84" s="12">
-        <f t="shared" si="61"/>
+      <c r="E90" s="36">
+        <f t="shared" si="81"/>
         <v>-148979</v>
       </c>
-      <c r="F84" s="12">
-        <f t="shared" si="61"/>
+      <c r="F90" s="36">
+        <f t="shared" si="81"/>
         <v>-123474</v>
       </c>
-      <c r="G84" s="12">
-        <f t="shared" si="61"/>
+      <c r="G90" s="36">
+        <f t="shared" si="81"/>
         <v>-140487</v>
       </c>
-      <c r="H84" s="12">
-        <f t="shared" si="61"/>
+      <c r="H90" s="36">
+        <f t="shared" si="81"/>
         <v>-93379</v>
       </c>
-      <c r="I84" s="12">
-        <f t="shared" si="61"/>
+      <c r="I90" s="36">
+        <f t="shared" si="81"/>
         <v>-163039</v>
       </c>
-      <c r="J84" s="12">
-        <f>(J82-J83)</f>
+      <c r="J90" s="36">
+        <f>(J88-J89)</f>
         <v>-101379</v>
       </c>
-      <c r="K84" s="12">
-        <f t="shared" si="61"/>
+      <c r="K90" s="36">
+        <f t="shared" si="81"/>
         <v>-179329</v>
       </c>
-      <c r="L84" s="12">
-        <f t="shared" si="61"/>
+      <c r="L90" s="36">
+        <f t="shared" si="81"/>
         <v>-123875</v>
       </c>
-      <c r="M84" s="12"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="14">
+      <c r="M90" s="36"/>
+      <c r="R90" s="36">
+        <f t="shared" ref="R90:T90" si="82">(R88-R89)</f>
+        <v>-1293601</v>
+      </c>
+      <c r="S90" s="36">
+        <f t="shared" si="82"/>
+        <v>-520379</v>
+      </c>
+      <c r="T90" s="36">
+        <f t="shared" si="82"/>
+        <v>-371094</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="31">
         <v>2054799</v>
       </c>
-      <c r="L85" s="31">
+      <c r="L92" s="31">
         <v>2073265</v>
       </c>
-      <c r="M85" s="15"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
-    </row>
-    <row r="86" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="89" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="17">
-        <f t="shared" ref="D89:L89" si="62">D63/C63-1</f>
-        <v>0.14878378968513917</v>
-      </c>
-      <c r="E89" s="17">
-        <f t="shared" si="62"/>
-        <v>0.11309207025013301</v>
-      </c>
-      <c r="F89" s="17">
-        <f t="shared" si="62"/>
-        <v>5.9433514131099541E-2</v>
-      </c>
-      <c r="G89" s="17">
-        <f t="shared" si="62"/>
-        <v>0.10083403177877948</v>
-      </c>
-      <c r="H89" s="17">
-        <f t="shared" si="62"/>
-        <v>4.3935449177674446E-2</v>
-      </c>
-      <c r="I89" s="17">
-        <f t="shared" si="62"/>
-        <v>0.10384142640751159</v>
-      </c>
-      <c r="J89" s="17">
-        <f t="shared" si="62"/>
-        <v>3.1164306819415621E-2</v>
-      </c>
-      <c r="K89" s="17">
-        <f t="shared" si="62"/>
-        <v>5.9712293074825729E-2</v>
-      </c>
-      <c r="L89" s="17">
-        <f t="shared" si="62"/>
-        <v>1.0295765417221547E-2</v>
-      </c>
-      <c r="M89" s="18"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
-      <c r="Z89" s="19"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
-      <c r="V90" s="20"/>
-      <c r="W90" s="20"/>
-      <c r="X90" s="20"/>
-      <c r="Y90" s="20"/>
-      <c r="Z90" s="20"/>
-    </row>
-    <row r="92" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-    </row>
-    <row r="93" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
-        <v>21</v>
+      <c r="M92" s="15"/>
+      <c r="R92" s="33">
+        <v>977722</v>
+      </c>
+      <c r="S92" s="33">
+        <v>1923617</v>
+      </c>
+      <c r="T92" s="33">
+        <v>2063793</v>
+      </c>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+      <c r="Z92" s="16"/>
+    </row>
+    <row r="93" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4303,147 +4814,160 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="14">
-        <v>2269411</v>
-      </c>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="37">
+        <f>K90/K92</f>
+        <v>-8.7273256410967684E-2</v>
+      </c>
+      <c r="L93" s="37">
+        <f>L90/L92</f>
+        <v>-5.9748753777254714E-2</v>
+      </c>
       <c r="M93" s="14"/>
-    </row>
-    <row r="94" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14">
-        <v>33804</v>
-      </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-    </row>
-    <row r="95" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="13">
-        <v>256554</v>
-      </c>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-    </row>
-    <row r="96" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="13">
-        <v>252563</v>
-      </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J97" s="5">
-        <v>115042</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J98" s="14">
-        <f>J93+J94+J95+J96+J97</f>
-        <v>2927374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14">
-        <v>41866</v>
-      </c>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-    </row>
-    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14">
-        <v>29222</v>
-      </c>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
-    </row>
-    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14">
-        <v>224888</v>
-      </c>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-    </row>
-    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R93" s="37">
+        <f>R90/R92</f>
+        <v>-1.3230764982275125</v>
+      </c>
+      <c r="S93" s="37">
+        <f t="shared" ref="S93:T93" si="83">S90/S92</f>
+        <v>-0.27052110685235159</v>
+      </c>
+      <c r="T93" s="37">
+        <f t="shared" si="83"/>
+        <v>-0.17981163808579639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A95" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="R95" s="33">
+        <v>979330</v>
+      </c>
+      <c r="S95" s="33">
+        <v>1923617</v>
+      </c>
+      <c r="T95" s="33">
+        <v>2063793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A96" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="R96" s="37">
+        <f>R90/R95</f>
+        <v>-1.3209040874883848</v>
+      </c>
+      <c r="S96" s="37">
+        <f>S90/S95</f>
+        <v>-0.27052110685235159</v>
+      </c>
+      <c r="T96" s="37">
+        <f>T90/T95</f>
+        <v>-0.17981163808579639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+    </row>
+    <row r="98" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="17">
+        <f>D63/C63-1</f>
+        <v>0.14878378968513917</v>
+      </c>
+      <c r="E98" s="17">
+        <f>E63/D63-1</f>
+        <v>0.11309207025013301</v>
+      </c>
+      <c r="F98" s="17">
+        <f>F63/E63-1</f>
+        <v>5.9433514131099541E-2</v>
+      </c>
+      <c r="G98" s="17">
+        <f>G63/F63-1</f>
+        <v>0.10083403177877948</v>
+      </c>
+      <c r="H98" s="17">
+        <f>H63/G63-1</f>
+        <v>4.3935449177674446E-2</v>
+      </c>
+      <c r="I98" s="17">
+        <f>I63/H63-1</f>
+        <v>0.10384142640751159</v>
+      </c>
+      <c r="J98" s="17">
+        <f>J63/I63-1</f>
+        <v>3.1164306819415621E-2</v>
+      </c>
+      <c r="K98" s="17">
+        <f>K63/J63-1</f>
+        <v>5.9712293074825729E-2</v>
+      </c>
+      <c r="L98" s="17">
+        <f>L63/K63-1</f>
+        <v>1.0295765417221547E-2</v>
+      </c>
+      <c r="M98" s="18"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="19"/>
+      <c r="U98" s="19"/>
+      <c r="V98" s="19"/>
+      <c r="W98" s="19"/>
+      <c r="X98" s="19"/>
+      <c r="Y98" s="19"/>
+      <c r="Z98" s="19"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
+    </row>
+    <row r="101" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+    </row>
+    <row r="102" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4454,22 +4978,35 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14">
-        <v>95829</v>
+        <v>2269411</v>
       </c>
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="14">
-        <f>J98+J99+J100+J101+J102</f>
-        <v>3319179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33804</v>
+      </c>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+    </row>
+    <row r="104" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -4478,14 +5015,16 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
+      <c r="J104" s="13">
+        <v>256554</v>
+      </c>
       <c r="K104" s="14"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4495,54 +5034,33 @@
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
-      <c r="J105" s="14">
-        <v>27454</v>
+      <c r="J105" s="13">
+        <v>252563</v>
       </c>
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14">
-        <v>150176</v>
-      </c>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-    </row>
-    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J106" s="5">
+        <v>115042</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J107" s="14">
-        <v>218521</v>
-      </c>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-    </row>
-    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <f>J102+J103+J104+J105+J106</f>
+        <v>2927374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4553,15 +5071,15 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14">
-        <v>232908</v>
+        <v>41866</v>
       </c>
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4572,15 +5090,15 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14">
-        <v>40045</v>
+        <v>29222</v>
       </c>
       <c r="K109" s="14"/>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4591,16 +5109,15 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14">
-        <f>J105+J106+J107+J108+J109</f>
-        <v>669104</v>
+        <v>224888</v>
       </c>
       <c r="K110" s="14"/>
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4611,24 +5128,22 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14">
-        <v>33244</v>
+        <v>95829</v>
       </c>
       <c r="K111" s="14"/>
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J112" s="5">
-        <v>22276</v>
+        <v>28</v>
+      </c>
+      <c r="J112" s="14">
+        <f>J107+J108+J109+J110+J111</f>
+        <v>3319179</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
@@ -4637,887 +5152,1046 @@
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="14">
-        <v>227617</v>
-      </c>
+      <c r="J113" s="14"/>
       <c r="K113" s="14"/>
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J114" s="5">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14">
+        <v>27454</v>
+      </c>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+    </row>
+    <row r="115" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
       <c r="J115" s="14">
-        <f>J110+J111+J112+J113+J114</f>
-        <v>954433</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>150176</v>
+      </c>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+    </row>
+    <row r="116" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14">
+        <v>218521</v>
+      </c>
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+      <c r="M116" s="14"/>
+    </row>
+    <row r="117" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14">
+        <v>232908</v>
+      </c>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+    </row>
+    <row r="118" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J118" s="5">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14">
+        <v>40045</v>
+      </c>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="14"/>
+    </row>
+    <row r="119" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J119" s="5">
-        <v>7953856</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14">
+        <f>J114+J115+J116+J117+J118</f>
+        <v>669104</v>
+      </c>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+    </row>
+    <row r="120" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J120" s="5">
-        <v>-4044</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14">
+        <v>33244</v>
+      </c>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J121" s="5">
-        <v>-5587112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>22276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J122" s="5">
-        <f>J118+J119+J120+J121</f>
-        <v>2364746</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14">
+        <v>227617</v>
+      </c>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="J123" s="4"/>
+      <c r="A123" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="5">
+        <v>2192</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J124" s="14">
+        <f>J119+J120+J121+J122+J123</f>
+        <v>954433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" s="5">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J128" s="5">
+        <v>7953856</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J129" s="5">
+        <v>-4044</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J130" s="5">
+        <v>-5587112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" s="5">
+        <f>J127+J128+J129+J130</f>
+        <v>2364746</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="13"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J133" s="14">
+        <f>J131+J124</f>
+        <v>3319179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J124" s="14">
-        <f>J122+J115</f>
-        <v>3319179</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J125" s="14">
-        <f>J103-J124</f>
+      <c r="J134" s="14">
+        <f>J112-J133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="14">
-        <f>B84</f>
+    <row r="136" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="14">
+        <f>B90</f>
         <v>0</v>
       </c>
-      <c r="C128" s="14">
-        <f t="shared" ref="C128:M128" si="63">C84</f>
+      <c r="C137" s="14">
+        <f>C90</f>
         <v>-100088</v>
       </c>
-      <c r="D128" s="14">
-        <f t="shared" si="63"/>
+      <c r="D137" s="14">
+        <f>D90</f>
         <v>-853319</v>
       </c>
-      <c r="E128" s="14">
-        <f t="shared" si="63"/>
+      <c r="E137" s="14">
+        <f>E90</f>
         <v>-148979</v>
       </c>
-      <c r="F128" s="14">
-        <f t="shared" si="63"/>
+      <c r="F137" s="14">
+        <f>F90</f>
         <v>-123474</v>
       </c>
-      <c r="G128" s="14">
-        <f t="shared" si="63"/>
+      <c r="G137" s="14">
+        <f>G90</f>
         <v>-140487</v>
       </c>
-      <c r="H128" s="14">
-        <f t="shared" si="63"/>
+      <c r="H137" s="14">
+        <f>H90</f>
         <v>-93379</v>
       </c>
-      <c r="I128" s="14">
-        <f t="shared" si="63"/>
+      <c r="I137" s="14">
+        <f>I90</f>
         <v>-163039</v>
       </c>
-      <c r="J128" s="14">
-        <f t="shared" si="63"/>
+      <c r="J137" s="14">
+        <f>J90</f>
         <v>-101379</v>
       </c>
-      <c r="K128" s="14">
-        <f t="shared" si="63"/>
+      <c r="K137" s="14">
+        <f>K90</f>
         <v>-179329</v>
       </c>
-      <c r="L128" s="14">
-        <f t="shared" si="63"/>
+      <c r="L137" s="14">
+        <f>L90</f>
         <v>-123875</v>
       </c>
-      <c r="M128" s="14">
-        <f t="shared" si="63"/>
+      <c r="M137" s="14">
+        <f>M90</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="J139" s="5">
+        <v>4312</v>
+      </c>
+      <c r="K139" s="5">
+        <f>9207-J139</f>
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J130" s="5">
-        <v>4312</v>
-      </c>
-      <c r="K130" s="5">
-        <f>9207-J130</f>
-        <v>4895</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="J140" s="5">
+        <v>149323</v>
+      </c>
+      <c r="K140" s="5">
+        <f>295092-J140</f>
+        <v>145769</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J131" s="5">
-        <v>149323</v>
-      </c>
-      <c r="K131" s="5">
-        <f>295092-J131</f>
-        <v>145769</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="J141" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J132" s="5">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="J142" s="5">
+        <v>10142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J133" s="5">
-        <v>10142</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="J143" s="5">
+        <v>62843</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J134" s="5">
-        <v>62843</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J135" s="5">
+      <c r="J144" s="5">
         <v>-2751</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" s="5">
-        <v>-65867</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J137" s="5">
-        <v>-4320</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J138" s="5">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J139" s="5">
-        <v>-47404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J140" s="5">
-        <v>-5334</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J141" s="5">
-        <v>-16335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J142" s="5">
-        <v>59822</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J143" s="5">
-        <v>-10388</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J144" s="5">
-        <v>-75</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J145" s="14">
-        <f>J128+J130+J131+J132+J133+J134+J135+J136+J137+J138+J139+J140+J141+J142+J143+J144</f>
-        <v>35477</v>
+        <v>21</v>
+      </c>
+      <c r="J145" s="5">
+        <v>-65867</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J146" s="5">
+        <v>-4320</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="J147" s="5">
-        <v>-15215</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="J148" s="5">
-        <v>-89500</v>
+        <v>-47404</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="J149" s="5">
-        <v>8247</v>
+        <v>-5334</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="J150" s="5">
-        <f>J147+J148+J149</f>
-        <v>-96468</v>
+        <v>-16335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" s="5">
+        <v>59822</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="J152" s="5">
-        <v>27225</v>
+        <v>-10388</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J153" s="5">
-        <v>16</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J154" s="5">
-        <f>J152+J153</f>
-        <v>27241</v>
+        <v>133</v>
+      </c>
+      <c r="J154" s="14">
+        <f>J137+J139+J140+J141+J142+J143+J144+J145+J146+J147+J148+J149+J150+J151+J152+J153</f>
+        <v>35477</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J156" s="14">
-        <f>J145+J150+J154</f>
-        <v>-33750</v>
+        <v>134</v>
+      </c>
+      <c r="J156" s="5">
+        <v>-15215</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J157" s="14">
-        <f>I158</f>
-        <v>2366914</v>
+        <v>135</v>
+      </c>
+      <c r="J157" s="5">
+        <v>-89500</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I158" s="5">
+        <v>136</v>
+      </c>
+      <c r="J158" s="5">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J159" s="5">
+        <f>J156+J157+J158</f>
+        <v>-96468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J161" s="5">
+        <v>27225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J162" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J163" s="5">
+        <f>J161+J162</f>
+        <v>27241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J165" s="14">
+        <f>J154+J159+J163</f>
+        <v>-33750</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J166" s="14">
+        <f>I167</f>
         <v>2366914</v>
       </c>
-      <c r="J158" s="14">
-        <f>J156+J157</f>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I167" s="5">
+        <v>2366914</v>
+      </c>
+      <c r="J167" s="14">
+        <f>J165+J166</f>
         <v>2333164</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I205" s="5">
-        <v>507317</v>
-      </c>
-      <c r="L205" s="5">
-        <v>914646</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I206" s="5">
-        <v>6844</v>
-      </c>
-      <c r="L206" s="5">
-        <v>7379</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I207" s="5">
-        <v>45048</v>
-      </c>
-      <c r="L207" s="5">
-        <v>24477</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I208" s="5">
-        <v>234153</v>
-      </c>
-      <c r="L208" s="5">
-        <v>57342</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I210" s="5">
-        <f>I205+I206+I207+I208</f>
-        <v>793362</v>
-      </c>
-      <c r="J210" s="5">
-        <f t="shared" ref="J210:L210" si="64">J205+J206+J207+J208</f>
-        <v>0</v>
-      </c>
-      <c r="K210" s="5">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="L210" s="5">
-        <f t="shared" si="64"/>
-        <v>1003844</v>
-      </c>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" s="7"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L213" s="5">
-        <v>77320</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="I214" s="5">
+        <v>507317</v>
       </c>
       <c r="L214" s="5">
-        <v>36685</v>
+        <v>914646</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="I215" s="5">
+        <v>6844</v>
       </c>
       <c r="L215" s="5">
-        <v>12116</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="I216" s="5">
+        <v>45048</v>
       </c>
       <c r="L216" s="5">
-        <v>6378</v>
+        <v>24477</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="I217" s="5">
+        <v>234153</v>
       </c>
       <c r="L217" s="5">
-        <f>L213+L214+L215+L216</f>
-        <v>132499</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L218" s="5">
-        <v>-74677</v>
+        <v>57342</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="I219" s="5">
+        <f>I214+I215+I216+I217</f>
+        <v>793362</v>
+      </c>
+      <c r="J219" s="5">
+        <f t="shared" ref="J219:L219" si="84">J214+J215+J216+J217</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="5">
+        <f t="shared" si="84"/>
+        <v>0</v>
       </c>
       <c r="L219" s="5">
-        <f>L217+L218</f>
+        <f t="shared" si="84"/>
+        <v>1003844</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L222" s="5">
+        <v>77320</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L223" s="5">
+        <v>36685</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L224" s="5">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L225" s="5">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L226" s="5">
+        <f>L222+L223+L224+L225</f>
+        <v>132499</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L227" s="5">
+        <v>-74677</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L228" s="5">
+        <f>L226+L227</f>
         <v>57822</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K239" s="5">
+        <v>47046</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K230" s="5">
-        <v>47046</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K231" s="5">
+      <c r="K240" s="5">
         <v>42912</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K232" s="5">
-        <v>97610</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K233" s="5">
-        <f>K230+K231+K232</f>
-        <v>187568</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I238" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="J238" s="5">
-        <v>20000000</v>
-      </c>
-      <c r="K238" s="5">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I239" s="5">
-        <v>1962382</v>
-      </c>
-      <c r="J239" s="5">
-        <v>1962382</v>
-      </c>
-      <c r="K239" s="5">
-        <v>1962382</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I241" s="5">
-        <v>2700000</v>
-      </c>
-      <c r="J241" s="5">
-        <v>2700000</v>
+        <v>90</v>
       </c>
       <c r="K241" s="5">
-        <v>2700000</v>
+        <v>97610</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I242" s="5">
-        <v>99354</v>
-      </c>
-      <c r="J242" s="5">
-        <v>99354</v>
+        <v>91</v>
       </c>
       <c r="K242" s="5">
-        <v>99354</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
+        <f>K239+K240+K241</f>
+        <v>187568</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I244" s="5">
-        <v>1005</v>
-      </c>
-      <c r="J244" s="5">
-        <v>1005</v>
-      </c>
-      <c r="K244" s="5">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I245" s="5">
-        <v>1005</v>
-      </c>
-      <c r="J245" s="5">
-        <v>1005</v>
-      </c>
-      <c r="K245" s="5">
-        <v>1005</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I247" s="5">
-        <f t="shared" ref="I247:K248" si="65">I238+I241+I244</f>
-        <v>22701005</v>
+        <v>20000000</v>
       </c>
       <c r="J247" s="5">
-        <f t="shared" si="65"/>
-        <v>22701005</v>
+        <v>20000000</v>
       </c>
       <c r="K247" s="5">
-        <f t="shared" si="65"/>
-        <v>22701005</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I248" s="5">
+        <v>1962382</v>
+      </c>
+      <c r="J248" s="5">
+        <v>1962382</v>
+      </c>
+      <c r="K248" s="5">
+        <v>1962382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I248" s="5">
-        <f t="shared" si="65"/>
-        <v>2062741</v>
-      </c>
-      <c r="J248" s="5">
-        <f t="shared" si="65"/>
-        <v>2062741</v>
-      </c>
-      <c r="K248" s="5">
-        <f t="shared" si="65"/>
-        <v>2062741</v>
-      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="7" t="s">
-        <v>99</v>
+      <c r="A250" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I250" s="5">
+        <v>2700000</v>
+      </c>
+      <c r="J250" s="5">
+        <v>2700000</v>
+      </c>
+      <c r="K250" s="5">
+        <v>2700000</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
-        <v>100</v>
+      <c r="A251" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I251" s="5">
+        <v>99354</v>
+      </c>
+      <c r="J251" s="5">
+        <v>99354</v>
+      </c>
+      <c r="K251" s="5">
+        <v>99354</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I252" s="5">
-        <v>349952</v>
-      </c>
-      <c r="K252" s="5">
-        <v>336576</v>
+      <c r="A252" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I253" s="5">
-        <v>7.81</v>
+        <v>1005</v>
+      </c>
+      <c r="J253" s="5">
+        <v>1005</v>
+      </c>
+      <c r="K253" s="5">
+        <v>1005</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I254" s="5">
-        <v>9.06</v>
+        <v>1005</v>
+      </c>
+      <c r="J254" s="5">
+        <v>1005</v>
+      </c>
+      <c r="K254" s="5">
+        <v>1005</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I255" s="5">
-        <v>3638685</v>
+      <c r="A255" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I256" s="5">
+        <f t="shared" ref="I256:K257" si="85">I247+I250+I253</f>
+        <v>22701005</v>
+      </c>
+      <c r="J256" s="5">
+        <f t="shared" si="85"/>
+        <v>22701005</v>
+      </c>
+      <c r="K256" s="5">
+        <f t="shared" si="85"/>
+        <v>22701005</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="I257" s="5">
+        <f t="shared" si="85"/>
+        <v>2062741</v>
+      </c>
+      <c r="J257" s="5">
+        <f t="shared" si="85"/>
+        <v>2062741</v>
+      </c>
+      <c r="K257" s="5">
+        <f t="shared" si="85"/>
+        <v>2062741</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K260" s="5">
-        <v>175943</v>
+      <c r="A260" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="I261" s="5">
+        <v>349952</v>
       </c>
       <c r="K261" s="5">
-        <v>5.46</v>
+        <v>336576</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K262" s="5">
-        <v>7.68</v>
+      <c r="I262" s="5">
+        <v>7.81</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K263" s="5">
-        <v>676872</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="4" t="s">
-        <v>108</v>
+      <c r="I263" s="5">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I264" s="5">
+        <v>3638685</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I266" s="5">
-        <v>153749</v>
-      </c>
-      <c r="K266" s="5">
-        <v>136710</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I267" s="5">
-        <v>9.56</v>
-      </c>
-      <c r="K267" s="5">
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I268" s="4"/>
-      <c r="J268" s="4"/>
-      <c r="K268" s="5">
-        <v>11209</v>
+        <v>101</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I269" s="4"/>
-      <c r="J269" s="4"/>
+        <v>106</v>
+      </c>
       <c r="K269" s="5">
-        <v>13.96</v>
+        <v>175943</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
+        <v>105</v>
+      </c>
       <c r="K270" s="5">
-        <v>-23833</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J271" s="4"/>
-      <c r="K271" s="4">
-        <v>8.59</v>
+        <v>104</v>
+      </c>
+      <c r="K271" s="5">
+        <v>7.68</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K272" s="5">
+        <v>676872</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I275" s="5">
+        <v>153749</v>
+      </c>
+      <c r="K275" s="5">
+        <v>136710</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J272" s="4"/>
-      <c r="K272" s="5">
+      <c r="I276" s="5">
+        <v>9.56</v>
+      </c>
+      <c r="K276" s="5">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I277" s="4"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="5">
+        <v>11209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I278" s="4"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="5">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I279" s="4"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="5">
+        <v>-23833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J280" s="4"/>
+      <c r="K280" s="4">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J281" s="4"/>
+      <c r="K281" s="5">
         <v>-4415</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K273" s="5">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K282" s="5">
         <v>9.07</v>
       </c>
     </row>
